--- a/Linux.xlsx
+++ b/Linux.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[fvlnx9510]_linux_operating_system_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB3E426-F37F-4C3C-AD61-06F68C277A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62011FC-C805-4FD9-974C-9B89EE82374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="20700" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
   <si>
     <t>Install</t>
   </si>
@@ -172,9 +172,6 @@
     <t>cd .</t>
   </si>
   <si>
-    <t>file name</t>
-  </si>
-  <si>
     <t>Show file type</t>
   </si>
   <si>
@@ -338,6 +335,106 @@
   </si>
   <si>
     <t>Do not overwrite an existing file</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>Concatenate files 
+(display to window)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -T</t>
+  </si>
+  <si>
+    <t>cat /var/log/syslog</t>
+  </si>
+  <si>
+    <t>System history file</t>
+  </si>
+  <si>
+    <t>Display file screen-by-screen</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>Clear screen first</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -c</t>
+  </si>
+  <si>
+    <t>Add line number</t>
+  </si>
+  <si>
+    <t>Show tabs</t>
+  </si>
+  <si>
+    <t>Display first 10 lines</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -n 20</t>
+  </si>
+  <si>
+    <t>Display first 20 lines</t>
+  </si>
+  <si>
+    <t>Display last 10 lines</t>
+  </si>
+  <si>
+    <t>Display last 20 lines</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>Locate file(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -n +2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -n -2</t>
+  </si>
+  <si>
+    <t>Don’t display two last lines</t>
+  </si>
+  <si>
+    <t>Don’t display two first lines</t>
+  </si>
+  <si>
+    <t>Comparing text files</t>
+  </si>
+  <si>
+    <t>Compare two files</t>
+  </si>
+  <si>
+    <t>Compare two or more files</t>
+  </si>
+  <si>
+    <t>cmp</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>comm</t>
   </si>
 </sst>
 </file>
@@ -412,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,8 +534,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -696,27 +799,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -857,21 +940,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -993,14 +1061,75 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1008,112 +1137,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,30 +1215,201 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1164,140 +1419,104 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1330,8 +1549,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>76476</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>131428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1645,1470 +1864,1697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A111" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="12"/>
+    <col min="1" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="35"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="35"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="35"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="35"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="35"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="35"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="35"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="35"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="35"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="35"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="35"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="35"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="35"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="35"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="35"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="35"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="35"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="35"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="36"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="38"/>
-    </row>
-    <row r="65" spans="1:5" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="58" t="s">
+      <c r="A63" s="12"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="105"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="14"/>
+    </row>
+    <row r="65" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="60"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="102"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="103"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="104"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="105"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="104"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="105"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="104"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="105"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="104"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="105"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="104"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="105"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="104"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="105"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="104"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="105"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="104"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="105"/>
-    </row>
-    <row r="75" spans="1:5" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="106"/>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="108"/>
-    </row>
-    <row r="76" spans="1:5" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="58" t="s">
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="140"/>
+      <c r="F65" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="104"/>
+    </row>
+    <row r="66" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="71"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G66" s="42"/>
+      <c r="H66" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" s="122"/>
+      <c r="J66" s="123"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="73"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="I67" s="59"/>
+      <c r="J67" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="73"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="I68" s="91"/>
+      <c r="J68" s="124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="73"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="101"/>
+      <c r="H69" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="I69" s="127"/>
+      <c r="J69" s="128"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="73"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" s="125"/>
+      <c r="H70" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70" s="126"/>
+      <c r="J70" s="129"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="73"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I71" s="59"/>
+      <c r="J71" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="73"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="I72" s="130"/>
+      <c r="J72" s="131"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="73"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="88"/>
+      <c r="H73" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="I73" s="126"/>
+      <c r="J73" s="129"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="73"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="I74" s="59"/>
+      <c r="J74" s="132" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="75"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="I75" s="91"/>
+      <c r="J75" s="133" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="60"/>
-    </row>
-    <row r="77" spans="1:5" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="63" t="s">
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" s="125"/>
+      <c r="H76" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="I76" s="126"/>
+      <c r="J76" s="129"/>
+    </row>
+    <row r="77" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="64"/>
-      <c r="C77" s="65" t="s">
+      <c r="B77" s="56"/>
+      <c r="C77" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="65" t="s">
+      <c r="D77" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="66" t="s">
+      <c r="E77" s="110" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="67" t="s">
+      <c r="F77" s="97"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I77" s="59"/>
+      <c r="J77" s="132" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="61"/>
-      <c r="C78" s="62" t="s">
+      <c r="B78" s="42"/>
+      <c r="C78" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="68" t="s">
+      <c r="E78" s="111" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="69"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="71" t="s">
+      <c r="F78" s="98"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="I78" s="91"/>
+      <c r="J78" s="133" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="12.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="43"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="89" t="s">
+      <c r="D79" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="90"/>
-    </row>
-    <row r="80" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A80" s="67" t="s">
+      <c r="E79" s="112"/>
+      <c r="F79" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" s="101"/>
+      <c r="H79" s="116" t="s">
+        <v>120</v>
+      </c>
+      <c r="I79" s="116"/>
+      <c r="J79" s="117"/>
+    </row>
+    <row r="80" spans="1:10" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="91" t="s">
+      <c r="B80" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="92"/>
-    </row>
-    <row r="81" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A81" s="72"/>
-      <c r="B81" s="19" t="s">
+      <c r="C80" s="82"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="118"/>
+      <c r="F80" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="G80" s="101"/>
+      <c r="H80" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I80" s="116"/>
+      <c r="J80" s="117"/>
+    </row>
+    <row r="81" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="70"/>
+      <c r="B81" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G81" s="134" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81" s="134"/>
+      <c r="I81" s="135" t="s">
+        <v>130</v>
+      </c>
+      <c r="J81" s="139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="12.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="70"/>
+      <c r="B82" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="93" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A82" s="72"/>
-      <c r="B82" s="19" t="s">
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="43"/>
+      <c r="G82" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="95"/>
+      <c r="I82" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="J82" s="131"/>
+    </row>
+    <row r="83" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="70"/>
+      <c r="B83" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A83" s="72"/>
-      <c r="B83" s="19" t="s">
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" s="137"/>
+      <c r="G83" s="138"/>
+      <c r="H83" s="138"/>
+      <c r="I83" s="136"/>
+      <c r="J83" s="136"/>
+    </row>
+    <row r="84" spans="1:10" ht="12" x14ac:dyDescent="0.3">
+      <c r="A84" s="70"/>
+      <c r="B84" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="93" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A84" s="72"/>
-      <c r="B84" s="19" t="s">
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="121"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+    </row>
+    <row r="85" spans="1:10" ht="12" x14ac:dyDescent="0.3">
+      <c r="A85" s="70"/>
+      <c r="B85" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="93" t="s">
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="119" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A85" s="72"/>
-      <c r="B85" s="19" t="s">
+      <c r="F85" s="121"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+    </row>
+    <row r="86" spans="1:10" ht="12" x14ac:dyDescent="0.3">
+      <c r="A86" s="70"/>
+      <c r="B86" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="93" t="s">
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="119" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A86" s="72"/>
-      <c r="B86" s="19" t="s">
+      <c r="F86" s="121"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+    </row>
+    <row r="87" spans="1:10" ht="12" x14ac:dyDescent="0.3">
+      <c r="A87" s="70"/>
+      <c r="B87" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="59"/>
+      <c r="E87" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="121"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+    </row>
+    <row r="88" spans="1:10" ht="12" x14ac:dyDescent="0.3">
+      <c r="A88" s="70"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="59"/>
+      <c r="E88" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="121"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+    </row>
+    <row r="89" spans="1:10" ht="12" x14ac:dyDescent="0.3">
+      <c r="A89" s="70"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="59"/>
+      <c r="E89" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="121"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="70"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="77"/>
+      <c r="E90" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" s="121"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="70"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="120"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="70"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="79"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="70"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" s="77"/>
+      <c r="E93" s="79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="70"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="79"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="70"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="77"/>
+      <c r="E95" s="79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="70"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="79"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="70"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="77"/>
+      <c r="E97" s="79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="43"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="46"/>
+    </row>
+    <row r="99" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A99" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="88"/>
+      <c r="C99" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="82"/>
+      <c r="E99" s="83"/>
+    </row>
+    <row r="100" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A100" s="87"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="59"/>
+      <c r="E100" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A101" s="87"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" s="59"/>
+      <c r="E101" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A102" s="87"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="59"/>
+      <c r="E102" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="89"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="93" t="s">
+      <c r="D103" s="91"/>
+      <c r="E103" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12" x14ac:dyDescent="0.25">
+      <c r="A104" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="84" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A87" s="72"/>
-      <c r="B87" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A88" s="72"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="93" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A89" s="72"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="72"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D90" s="53"/>
-      <c r="E90" s="94" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="72"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="94"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="72"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="94"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="72"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D93" s="53"/>
-      <c r="E93" s="94" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="72"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="94"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="72"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" s="53"/>
-      <c r="E95" s="94" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="72"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="94"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="72"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" s="53"/>
-      <c r="E97" s="94" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="69"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="90"/>
-    </row>
-    <row r="99" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A99" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="B99" s="54"/>
-      <c r="C99" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99" s="91"/>
-      <c r="E99" s="92"/>
-    </row>
-    <row r="100" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A100" s="75"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D100" s="19"/>
-      <c r="E100" s="95" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A101" s="75"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="95" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A102" s="75"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="95" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="76"/>
-      <c r="B103" s="77"/>
-      <c r="C103" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="D103" s="78"/>
-      <c r="E103" s="96" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="79" t="s">
+      <c r="D104" s="84"/>
+      <c r="E104" s="85"/>
+    </row>
+    <row r="105" spans="1:5" ht="12" x14ac:dyDescent="0.25">
+      <c r="A105" s="70"/>
+      <c r="B105" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="86"/>
+      <c r="E105" s="79"/>
+    </row>
+    <row r="106" spans="1:5" ht="12" x14ac:dyDescent="0.25">
+      <c r="A106" s="70"/>
+      <c r="B106" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B104" s="80"/>
-      <c r="C104" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="D104" s="97"/>
-      <c r="E104" s="98"/>
-    </row>
-    <row r="105" spans="1:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="A105" s="67" t="s">
+      <c r="C106" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="86"/>
+      <c r="E106" s="79"/>
+    </row>
+    <row r="107" spans="1:5" ht="12" x14ac:dyDescent="0.25">
+      <c r="A107" s="70"/>
+      <c r="B107" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="86"/>
+      <c r="E107" s="79"/>
+    </row>
+    <row r="108" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A108" s="70"/>
+      <c r="B108" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" s="59"/>
+      <c r="E108" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A109" s="70"/>
+      <c r="B109" s="94"/>
+      <c r="C109" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="59"/>
+      <c r="E109" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="43"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D110" s="91"/>
+      <c r="E110" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="12" x14ac:dyDescent="0.25">
+      <c r="A111" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B105" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" s="99"/>
-      <c r="E105" s="100"/>
-    </row>
-    <row r="106" spans="1:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="A106" s="72"/>
-      <c r="B106" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="D106" s="101"/>
-      <c r="E106" s="94"/>
-    </row>
-    <row r="107" spans="1:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="A107" s="72"/>
-      <c r="B107" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" s="101"/>
-      <c r="E107" s="94"/>
-    </row>
-    <row r="108" spans="1:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="A108" s="72"/>
-      <c r="B108" s="55" t="s">
+      <c r="B111" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="84"/>
+      <c r="E111" s="85"/>
+    </row>
+    <row r="112" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A112" s="97"/>
+      <c r="B112" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="101" t="s">
+      <c r="C112" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" s="59"/>
+      <c r="E112" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D108" s="101"/>
-      <c r="E108" s="94"/>
-    </row>
-    <row r="109" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A109" s="72"/>
-      <c r="B109" s="56" t="s">
+    </row>
+    <row r="113" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A113" s="97"/>
+      <c r="B113" s="94"/>
+      <c r="C113" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="59"/>
+      <c r="E113" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A114" s="97"/>
+      <c r="B114" s="94"/>
+      <c r="C114" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D114" s="99"/>
+      <c r="E114" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A115" s="97"/>
+      <c r="B115" s="94"/>
+      <c r="C115" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="D115" s="59"/>
+      <c r="E115" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="98"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D116" s="91"/>
+      <c r="E116" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="12" x14ac:dyDescent="0.25">
+      <c r="A117" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C117" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D117" s="84"/>
+      <c r="E117" s="85"/>
+    </row>
+    <row r="118" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A118" s="97"/>
+      <c r="B118" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D118" s="59"/>
+      <c r="E118" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="12" x14ac:dyDescent="0.3">
+      <c r="A119" s="97"/>
+      <c r="B119" s="94"/>
+      <c r="C119" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="59"/>
+      <c r="E119" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="98"/>
+      <c r="B120" s="95"/>
+      <c r="C120" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="D120" s="91"/>
+      <c r="E120" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" s="101"/>
+      <c r="C121" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="92"/>
+      <c r="E121" s="93"/>
+    </row>
+    <row r="122" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="C109" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="95" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A110" s="72"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="69"/>
-      <c r="B111" s="82"/>
-      <c r="C111" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D111" s="78"/>
-      <c r="E111" s="96" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="A112" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B112" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="D112" s="99"/>
-      <c r="E112" s="100"/>
-    </row>
-    <row r="113" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A113" s="85"/>
-      <c r="B113" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="95" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A114" s="85"/>
-      <c r="B114" s="56"/>
-      <c r="C114" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D114" s="19"/>
-      <c r="E114" s="95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A115" s="85"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D115" s="57"/>
-      <c r="E115" s="95" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A116" s="85"/>
-      <c r="B116" s="56"/>
-      <c r="C116" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D116" s="19"/>
-      <c r="E116" s="95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="86"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D117" s="78"/>
-      <c r="E117" s="96" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="12" x14ac:dyDescent="0.25">
-      <c r="A118" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B118" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="D118" s="99"/>
-      <c r="E118" s="100"/>
-    </row>
-    <row r="119" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A119" s="85"/>
-      <c r="B119" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="95" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="12" x14ac:dyDescent="0.3">
-      <c r="A120" s="85"/>
-      <c r="B120" s="56"/>
-      <c r="C120" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D120" s="19"/>
-      <c r="E120" s="95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="86"/>
-      <c r="B121" s="82"/>
-      <c r="C121" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D121" s="78"/>
-      <c r="E121" s="96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="B122" s="88"/>
-      <c r="C122" s="97" t="s">
+      <c r="B122" s="101"/>
+      <c r="C122" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="D122" s="97"/>
-      <c r="E122" s="98"/>
-    </row>
-    <row r="123" spans="1:5" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="B123" s="88"/>
-      <c r="C123" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="D123" s="97"/>
-      <c r="E123" s="98"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="93"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="113"/>
+      <c r="B123" s="114"/>
+      <c r="C123" s="114"/>
+      <c r="D123" s="114"/>
+      <c r="E123" s="115"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="A118:A121"/>
+  <mergeCells count="104">
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="F76:G78"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="F73:G75"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="F70:G72"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="F66:G68"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="C121:E121"/>
     <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="A121:B121"/>
     <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:D118"/>
     <mergeCell ref="C119:D119"/>
     <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C115:D115"/>
     <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:D112"/>
     <mergeCell ref="C113:D113"/>
     <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C104:E104"/>
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="C106:E106"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="A99:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
     <mergeCell ref="C107:E107"/>
-    <mergeCell ref="A105:A111"/>
-    <mergeCell ref="A99:B103"/>
-    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D109"/>
     <mergeCell ref="A66:E75"/>
     <mergeCell ref="C97:D98"/>
     <mergeCell ref="E97:E98"/>
@@ -3124,12 +3570,6 @@
     <mergeCell ref="E95:E96"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C90:D92"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
     <mergeCell ref="B80:E80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
@@ -3152,6 +3592,7 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F65:J65"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A1:E1"/>

--- a/Linux.xlsx
+++ b/Linux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[fvlnx9510]_linux_operating_system_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C836C3-0753-406C-B08C-7C491227C84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67038841-8257-4C7C-85A9-5BAF8B130625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="20700" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="256">
   <si>
     <t>Install</t>
   </si>
@@ -398,12 +398,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>Locate file(s)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -n +2</t>
   </si>
   <si>
@@ -570,13 +564,295 @@
   </si>
   <si>
     <t xml:space="preserve">Filters out the repeated </t>
+  </si>
+  <si>
+    <t>Find file(s)</t>
+  </si>
+  <si>
+    <t>find [path] [options [expression]</t>
+  </si>
+  <si>
+    <t>Find Files by Type</t>
+  </si>
+  <si>
+    <t>f: a regular file</t>
+  </si>
+  <si>
+    <t>d: directory</t>
+  </si>
+  <si>
+    <t>l: symbolic link</t>
+  </si>
+  <si>
+    <t>c: character devices</t>
+  </si>
+  <si>
+    <t>b: block devices</t>
+  </si>
+  <si>
+    <t>p: named pipe (FIFO)</t>
+  </si>
+  <si>
+    <t>s: socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -type</t>
+  </si>
+  <si>
+    <t>find . -type d</t>
+  </si>
+  <si>
+    <t>Find all directories in the current directory</t>
+  </si>
+  <si>
+    <t>Find Files by Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -type -name</t>
+  </si>
+  <si>
+    <t>find . -type f -name doc.pdf</t>
+  </si>
+  <si>
+    <t>Find doc.pdf in current dir</t>
+  </si>
+  <si>
+    <t>Find Files by Extension</t>
+  </si>
+  <si>
+    <t>Find all files ending with .txt</t>
+  </si>
+  <si>
+    <t>find . -type f -name '*.txt'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -size</t>
+  </si>
+  <si>
+    <t>b: 512-byte blocks (default)</t>
+  </si>
+  <si>
+    <t>c: bytes</t>
+  </si>
+  <si>
+    <t>w: two-byte words</t>
+  </si>
+  <si>
+    <t>k: Kilobytes</t>
+  </si>
+  <si>
+    <t>M: Megabytes</t>
+  </si>
+  <si>
+    <t>G: Gigabytes</t>
+  </si>
+  <si>
+    <t>find . -type f -size 1c</t>
+  </si>
+  <si>
+    <t>Find files of 1b inside the cd</t>
+  </si>
+  <si>
+    <t>find . -type f -size +1M</t>
+  </si>
+  <si>
+    <t>Files greater than 1MB</t>
+  </si>
+  <si>
+    <t>Files within a size range</t>
+  </si>
+  <si>
+    <t>find . -type f -size 1M -size 2M</t>
+  </si>
+  <si>
+    <t>Find Files by Modification Date</t>
+  </si>
+  <si>
+    <t>Find Files by Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -mtime</t>
+  </si>
+  <si>
+    <t>find . -mtime 1</t>
+  </si>
+  <si>
+    <t>Files has been modified in the last one day</t>
+  </si>
+  <si>
+    <t>Find Files by Permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -perm</t>
+  </si>
+  <si>
+    <t>find . -perm -664</t>
+  </si>
+  <si>
+    <t>find . -perm /444</t>
+  </si>
+  <si>
+    <t>Files that have read and write permission for the owner and group and are readable by other users</t>
+  </si>
+  <si>
+    <t>Files with read permissions set for either user, group, or others.</t>
+  </si>
+  <si>
+    <t>Find Files by Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -group</t>
+  </si>
+  <si>
+    <t>find / -user SH</t>
+  </si>
+  <si>
+    <t>find / -user SH -type f  -exec chown MA {} \;</t>
+  </si>
+  <si>
+    <t>files files owned by user SH</t>
+  </si>
+  <si>
+    <t>Find files owned by user SH and change the ownership of them from SH to MA:</t>
+  </si>
+  <si>
+    <t>Find and Delete Files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -delete</t>
+  </si>
+  <si>
+    <t>delete files ending with .txt</t>
+  </si>
+  <si>
+    <t>find . -name `*.txt` -delete</t>
+  </si>
+  <si>
+    <t>Find Files by accessed Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -atime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -amin</t>
+  </si>
+  <si>
+    <t>Files has been accessed in the last one day</t>
+  </si>
+  <si>
+    <t>Files has been accessed in the last one min</t>
+  </si>
+  <si>
+    <t>find . -atime 1</t>
+  </si>
+  <si>
+    <t>find . -amin 1</t>
+  </si>
+  <si>
+    <t>Files has been accessed in the more/less than one min ago</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">find . -amin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> -mmin</t>
+  </si>
+  <si>
+    <t>Files has been modified in the last one min</t>
+  </si>
+  <si>
+    <t>Files has been modified in the more/less than one min ago</t>
+  </si>
+  <si>
+    <t>find . -mmin 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">find . -mmin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Find and Quit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -quit</t>
+  </si>
+  <si>
+    <t>find -name sh -quit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a match is found, exit </t>
+  </si>
+  <si>
+    <t>Find executable files</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>which ls</t>
+  </si>
+  <si>
+    <t>whereis</t>
+  </si>
+  <si>
+    <t>whereis ls</t>
+  </si>
+  <si>
+    <t>used to locate ls</t>
+  </si>
+  <si>
+    <t>used to locate ls completely</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +905,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -662,7 +958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -743,19 +1039,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -916,17 +1199,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -948,15 +1220,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1010,89 +1273,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1100,25 +1280,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,32 +1313,81 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1160,154 +1395,106 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1392,14 +1579,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>518583</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>57530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>377102</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>48803</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>48802</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1436,7 +1623,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4240660" y="20367761"/>
+          <a:off x="4240660" y="14037299"/>
           <a:ext cx="1099211" cy="518811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1771,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A103" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A151" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G106" sqref="G106:J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1783,13 +1970,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1797,13 +1984,13 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1811,13 +1998,13 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1825,13 +2012,13 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1842,14 +2029,14 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1857,15 +2044,15 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1873,17 +2060,17 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1891,13 +2078,13 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -1908,12 +2095,12 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1921,15 +2108,15 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1937,13 +2124,13 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="42" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1951,13 +2138,13 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="42" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1965,13 +2152,13 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="45" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -2579,1176 +2766,1726 @@
       <c r="J63" s="10"/>
     </row>
     <row r="64" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="19" t="s">
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="74" t="s">
+      <c r="G64" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
     </row>
     <row r="65" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="19"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="26"/>
       <c r="G65" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="H65" s="20" t="s">
+      <c r="H65" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="20"/>
+      <c r="I65" s="25"/>
       <c r="J65" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="19"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="26"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I66" s="20"/>
+      <c r="I66" s="25"/>
       <c r="J66" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="19"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="26"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="20" t="s">
+      <c r="H67" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="20"/>
+      <c r="I67" s="25"/>
       <c r="J67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="75" t="s">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="75"/>
-      <c r="H68" s="32" t="s">
+      <c r="G68" s="30"/>
+      <c r="H68" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="75" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="75"/>
-      <c r="H69" s="32" t="s">
+      <c r="G69" s="30"/>
+      <c r="H69" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="73" t="s">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
     </row>
     <row r="71" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="22" t="s">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="22"/>
-      <c r="H71" s="29" t="s">
+      <c r="G71" s="28"/>
+      <c r="H71" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
     </row>
     <row r="72" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="20" t="s">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I72" s="20"/>
-      <c r="J72" s="13" t="s">
+      <c r="I72" s="25"/>
+      <c r="J72" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="20" t="s">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="I73" s="20"/>
-      <c r="J73" s="13" t="s">
+      <c r="I73" s="25"/>
+      <c r="J73" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="75" t="s">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G74" s="75"/>
-      <c r="H74" s="29" t="s">
+      <c r="G74" s="30"/>
+      <c r="H74" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
     </row>
     <row r="75" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="19" t="s">
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="32" t="s">
+      <c r="G75" s="26"/>
+      <c r="H75" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="57" t="s">
+      <c r="B76" s="26"/>
+      <c r="C76" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="57" t="s">
+      <c r="D76" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="57" t="s">
+      <c r="E76" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="20" t="s">
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="I76" s="20"/>
-      <c r="J76" s="13" t="s">
+      <c r="I76" s="25"/>
+      <c r="J76" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="15" t="s">
+      <c r="B77" s="28"/>
+      <c r="C77" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="57" t="s">
+      <c r="D77" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="57" t="s">
+      <c r="E77" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="32" t="s">
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="15" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="19" t="s">
+      <c r="E78" s="27"/>
+      <c r="F78" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="32" t="s">
+      <c r="G78" s="26"/>
+      <c r="H78" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="79" t="s">
+      <c r="A79" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="20" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I79" s="20"/>
+      <c r="I79" s="25"/>
       <c r="J79" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="61"/>
-      <c r="B80" s="20" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="13" t="s">
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I80" s="20"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I80" s="25"/>
       <c r="J80" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="20" t="s">
+      <c r="A81" s="28"/>
+      <c r="B81" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="13" t="s">
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="32" t="s">
+      <c r="G81" s="26"/>
+      <c r="H81" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
     </row>
     <row r="82" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61"/>
-      <c r="B82" s="20" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="13" t="s">
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="20" t="s">
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="I82" s="20"/>
+      <c r="I82" s="25"/>
       <c r="J82" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="20" t="s">
+      <c r="A83" s="28"/>
+      <c r="B83" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="13" t="s">
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="20" t="s">
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I83" s="25"/>
+      <c r="J83" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="30"/>
+      <c r="H84" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+    </row>
+    <row r="85" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="I83" s="20"/>
-      <c r="J83" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F84" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="G84" s="75"/>
-      <c r="H84" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
-    </row>
-    <row r="85" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F85" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="G85" s="75"/>
-      <c r="H85" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="86" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="61"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
-      <c r="E86" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F86" s="22" t="s">
+      <c r="E86" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" s="28"/>
+      <c r="G86" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G86" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H86" s="24"/>
-      <c r="I86" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="J86" s="13" t="s">
+      <c r="H86" s="23"/>
+      <c r="I86" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="28"/>
+      <c r="B87" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="25"/>
+      <c r="E87" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H87" s="23"/>
-      <c r="I87" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="J87" s="32"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
     </row>
     <row r="88" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="61"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20" t="s">
+      <c r="A88" s="28"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="13" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="F88" s="28"/>
+      <c r="G88" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="H88" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="21" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="89" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20" t="s">
+      <c r="A89" s="28"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="13" t="s">
+      <c r="D89" s="25"/>
+      <c r="E89" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H89" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I89" s="76"/>
-      <c r="J89" s="60" t="s">
-        <v>136</v>
+      <c r="F89" s="28"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="I89" s="45"/>
+      <c r="J89" s="21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="61"/>
-      <c r="B90" s="19"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D90" s="24"/>
-      <c r="E90" s="29" t="s">
+      <c r="E90" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F90" s="22"/>
+      <c r="F90" s="28"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="I90" s="76"/>
-      <c r="J90" s="60" t="s">
-        <v>151</v>
+      <c r="H90" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="I90" s="64"/>
+      <c r="J90" s="21" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="61"/>
-      <c r="B91" s="19"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="I91" s="77"/>
-      <c r="J91" s="60" t="s">
-        <v>150</v>
-      </c>
+      <c r="E91" s="27"/>
+      <c r="F91" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
     </row>
     <row r="92" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="61"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="22" t="s">
+      <c r="E92" s="27"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H92" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G92" s="29" t="s">
+      <c r="I92" s="27"/>
+      <c r="J92" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="28"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="28"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-    </row>
-    <row r="93" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="61"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="22"/>
-      <c r="G93" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H93" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="I93" s="29"/>
-      <c r="J93" s="14" t="s">
-        <v>69</v>
+      <c r="I93" s="27"/>
+      <c r="J93" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="61"/>
-      <c r="B94" s="19"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="24" t="s">
         <v>56</v>
       </c>
       <c r="D94" s="24"/>
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="22"/>
+      <c r="F94" s="28"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="29" t="s">
+      <c r="H94" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="I94" s="27"/>
+      <c r="J94" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="I94" s="29"/>
-      <c r="J94" s="14" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="95" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="61"/>
-      <c r="B95" s="19"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="29" t="s">
+      <c r="H95" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I95" s="29"/>
-      <c r="J95" s="14" t="s">
+      <c r="I95" s="27"/>
+      <c r="J95" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="61"/>
-      <c r="B96" s="19"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="24" t="s">
         <v>59</v>
       </c>
       <c r="D96" s="24"/>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F96" s="22"/>
+      <c r="F96" s="28"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="29" t="s">
+      <c r="H96" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="I96" s="29"/>
-      <c r="J96" s="14" t="s">
+      <c r="I96" s="27"/>
+      <c r="J96" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="61"/>
-      <c r="B97" s="19"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="22"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="28"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="29" t="s">
+      <c r="H97" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I97" s="29"/>
-      <c r="J97" s="14" t="s">
+      <c r="I97" s="27"/>
+      <c r="J97" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="61"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I98" s="29"/>
-      <c r="J98" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="A98" s="28"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
     </row>
     <row r="99" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G99" s="29" t="s">
+      <c r="A99" s="28"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="28"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G100" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
-    </row>
-    <row r="100" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="61"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="14" t="s">
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+    </row>
+    <row r="101" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="28"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G101" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="28"/>
+      <c r="B102" s="72"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G102" s="28"/>
+      <c r="H102" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="28"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="I103" s="25"/>
+      <c r="J103" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="28"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I104" s="25"/>
+      <c r="J104" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I105" s="25"/>
+      <c r="J105" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="61"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G101" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32"/>
-      <c r="J101" s="32"/>
-    </row>
-    <row r="102" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="61"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="G102" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="61"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-    </row>
-    <row r="104" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="61"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="I104" s="20"/>
-      <c r="J104" s="13" t="s">
+    <row r="106" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="28"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G106" s="29" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I105" s="20"/>
-      <c r="J105" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="61"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="I106" s="20"/>
-      <c r="J106" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
     </row>
     <row r="107" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="61"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="63" t="s">
+      <c r="A107" s="28"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="G107" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="H107" s="32"/>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64"/>
+      <c r="J107" s="64"/>
     </row>
     <row r="108" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
-      <c r="B108" s="70"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="71"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="72"/>
       <c r="E108" s="72"/>
-      <c r="F108" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
     </row>
     <row r="109" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="32" t="s">
+      <c r="B109" s="26"/>
+      <c r="C109" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="58"/>
-      <c r="H109" s="58"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="58"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+      <c r="J109" s="64"/>
     </row>
     <row r="110" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="20" t="s">
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D110" s="20"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F110" s="19"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="58"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="64"/>
     </row>
     <row r="111" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="20" t="s">
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="20"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="19"/>
-      <c r="G111" s="58"/>
-      <c r="H111" s="58"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+      <c r="J111" s="64"/>
     </row>
     <row r="112" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="20" t="s">
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="20"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F112" s="19"/>
-      <c r="G112" s="58"/>
-      <c r="H112" s="58"/>
-      <c r="I112" s="58"/>
-      <c r="J112" s="58"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="H112" s="68"/>
+      <c r="I112" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="J112" s="64"/>
     </row>
     <row r="113" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="20" t="s">
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D113" s="20"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H113" s="20"/>
-      <c r="I113" s="32" t="s">
+      <c r="F113" s="67"/>
+      <c r="G113" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="J113" s="32"/>
+      <c r="H113" s="68"/>
+      <c r="I113" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="J113" s="64"/>
     </row>
     <row r="114" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H114" s="20"/>
-      <c r="I114" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="J114" s="32"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="G114" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H114" s="69"/>
+      <c r="I114" s="69"/>
+      <c r="J114" s="69"/>
     </row>
     <row r="115" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
-      <c r="B115" s="15" t="s">
+      <c r="A115" s="28"/>
+      <c r="B115" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="29" t="s">
+      <c r="C115" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
     </row>
     <row r="116" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="15" t="s">
+      <c r="A116" s="28"/>
+      <c r="B116" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="29" t="s">
+      <c r="C116" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="H116" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="I116" s="64"/>
+      <c r="J116" s="64"/>
     </row>
     <row r="117" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="22"/>
+      <c r="A117" s="28"/>
       <c r="B117" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C117" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="I117" s="64"/>
+      <c r="J117" s="64"/>
     </row>
     <row r="118" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D118" s="20"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
+      <c r="F118" s="67"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
     </row>
     <row r="119" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="23"/>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D119" s="20"/>
+      <c r="D119" s="25"/>
       <c r="E119" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I119" s="64"/>
+      <c r="J119" s="64"/>
     </row>
     <row r="120" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="23"/>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D120" s="20"/>
+      <c r="D120" s="25"/>
       <c r="E120" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="I120" s="64"/>
+      <c r="J120" s="64"/>
     </row>
     <row r="121" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B121" s="78" t="s">
+      <c r="B121" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="I121" s="64"/>
+      <c r="J121" s="64"/>
     </row>
     <row r="122" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
+      <c r="A122" s="26"/>
       <c r="B122" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D122" s="20"/>
+      <c r="D122" s="25"/>
       <c r="E122" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="I122" s="64"/>
+      <c r="J122" s="64"/>
     </row>
     <row r="123" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
+      <c r="A123" s="26"/>
       <c r="B123" s="23"/>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D123" s="20"/>
+      <c r="D123" s="25"/>
       <c r="E123" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="H123" s="70"/>
+      <c r="I123" s="70"/>
+      <c r="J123" s="21" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="124" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19"/>
+      <c r="A124" s="26"/>
       <c r="B124" s="23"/>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="20"/>
+      <c r="D124" s="71"/>
       <c r="E124" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="H124" s="82"/>
+      <c r="I124" s="82"/>
+      <c r="J124" s="82"/>
     </row>
     <row r="125" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
+      <c r="A125" s="26"/>
       <c r="B125" s="23"/>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D125" s="20"/>
+      <c r="D125" s="25"/>
       <c r="E125" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="H125" s="64"/>
+      <c r="I125" s="64"/>
+      <c r="J125" s="64"/>
     </row>
     <row r="126" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="19"/>
+      <c r="A126" s="26"/>
       <c r="B126" s="23"/>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D126" s="20"/>
+      <c r="D126" s="25"/>
       <c r="E126" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-    </row>
-    <row r="132" spans="1:5" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H126" s="23"/>
+      <c r="I126" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="J126" s="64"/>
+    </row>
+    <row r="127" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B127" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="C127" s="81"/>
+      <c r="D127" s="81"/>
+      <c r="E127" s="81"/>
+    </row>
+    <row r="128" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="26"/>
+      <c r="B128" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" s="23"/>
+      <c r="D128" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E128" s="66"/>
+    </row>
+    <row r="129" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="26"/>
+      <c r="B129" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="81"/>
+      <c r="D129" s="81"/>
+      <c r="E129" s="81"/>
+    </row>
+    <row r="130" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="26"/>
+      <c r="B130" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C130" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D130" s="66"/>
+      <c r="E130" s="66"/>
+    </row>
+    <row r="131" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="26"/>
+      <c r="B131" s="66"/>
+      <c r="C131" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="D131" s="66"/>
+      <c r="E131" s="66"/>
+    </row>
+    <row r="132" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="26"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" s="66"/>
+      <c r="E132" s="66"/>
+    </row>
     <row r="133" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="16"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="18"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" s="66"/>
+      <c r="E133" s="66"/>
+    </row>
+    <row r="134" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="26"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="66" t="s">
+        <v>201</v>
+      </c>
+      <c r="D134" s="66"/>
+      <c r="E134" s="66"/>
+    </row>
+    <row r="135" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="26"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D135" s="66"/>
+      <c r="E135" s="66"/>
+    </row>
+    <row r="136" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="26"/>
+      <c r="B136" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C136" s="24"/>
+      <c r="D136" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="E136" s="75"/>
+    </row>
+    <row r="137" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="26"/>
+      <c r="B137" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C137" s="24"/>
+      <c r="D137" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="E137" s="75"/>
+    </row>
+    <row r="138" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="26"/>
+      <c r="B138" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C138" s="24"/>
+      <c r="D138" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="E138" s="73"/>
+    </row>
+    <row r="139" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="26"/>
+      <c r="B139" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C139" s="79"/>
+      <c r="D139" s="79"/>
+      <c r="E139" s="80"/>
+    </row>
+    <row r="140" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="26"/>
+      <c r="B140" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C140" s="66"/>
+      <c r="D140" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="E140" s="66"/>
+    </row>
+    <row r="141" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="26"/>
+      <c r="B141" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="26"/>
+      <c r="B142" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="74" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="26"/>
+      <c r="B143" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="26"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="75"/>
+    </row>
+    <row r="145" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="26"/>
+      <c r="B145" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="C145" s="81"/>
+      <c r="D145" s="81"/>
+      <c r="E145" s="81"/>
+    </row>
+    <row r="146" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="26"/>
+      <c r="B146" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="C146" s="66"/>
+      <c r="D146" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="E146" s="66"/>
+    </row>
+    <row r="147" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="26"/>
+      <c r="B147" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="26"/>
+      <c r="B148" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C148" s="23"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="26"/>
+      <c r="B149" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="26"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="66"/>
+    </row>
+    <row r="151" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="26"/>
+      <c r="B151" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151" s="81"/>
+      <c r="D151" s="81"/>
+      <c r="E151" s="81"/>
+    </row>
+    <row r="152" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="26"/>
+      <c r="B152" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="C152" s="66"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="66"/>
+    </row>
+    <row r="153" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="26"/>
+      <c r="B153" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" s="77"/>
+      <c r="D153" s="77"/>
+      <c r="E153" s="73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="26"/>
+      <c r="B154" s="77"/>
+      <c r="C154" s="77"/>
+      <c r="D154" s="77"/>
+      <c r="E154" s="73"/>
+    </row>
+    <row r="155" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="26"/>
+      <c r="B155" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C155" s="77"/>
+      <c r="D155" s="77"/>
+      <c r="E155" s="73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="26"/>
+      <c r="B156" s="77"/>
+      <c r="C156" s="77"/>
+      <c r="D156" s="77"/>
+      <c r="E156" s="73"/>
+    </row>
+    <row r="157" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="26"/>
+      <c r="B157" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" s="81"/>
+      <c r="D157" s="81"/>
+      <c r="E157" s="81"/>
+    </row>
+    <row r="158" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="26"/>
+      <c r="B158" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C158" s="66"/>
+      <c r="D158" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158" s="66"/>
+    </row>
+    <row r="159" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="26"/>
+      <c r="B159" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C159" s="23"/>
+      <c r="D159" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="E159" s="66"/>
+    </row>
+    <row r="160" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="26"/>
+      <c r="B160" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C160" s="24"/>
+      <c r="D160" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="E160" s="75"/>
+    </row>
+    <row r="161" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="26"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="75"/>
+      <c r="E161" s="75"/>
+    </row>
+    <row r="162" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="26"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="75"/>
+      <c r="E162" s="75"/>
+    </row>
+    <row r="163" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="26"/>
+      <c r="B163" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" s="81"/>
+      <c r="D163" s="81"/>
+      <c r="E163" s="81"/>
+    </row>
+    <row r="164" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="26"/>
+      <c r="B164" s="66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C164" s="66"/>
+      <c r="D164" s="66"/>
+      <c r="E164" s="66"/>
+    </row>
+    <row r="165" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="26"/>
+      <c r="B165" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C165" s="23"/>
+      <c r="D165" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="E165" s="66"/>
+    </row>
+    <row r="166" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="26"/>
+      <c r="B166" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="C166" s="81"/>
+      <c r="D166" s="81"/>
+      <c r="E166" s="81"/>
+    </row>
+    <row r="167" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="26"/>
+      <c r="B167" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+    </row>
+    <row r="168" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="26"/>
+      <c r="B168" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C168" s="23"/>
+      <c r="D168" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E168" s="27"/>
+    </row>
+    <row r="169" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B169" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C169" s="29"/>
+      <c r="D169" s="29"/>
+      <c r="E169" s="29"/>
+    </row>
+    <row r="170" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="28"/>
+      <c r="B170" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C170" s="25"/>
+      <c r="D170" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E170" s="29"/>
+    </row>
+    <row r="171" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="28"/>
+      <c r="B171" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+    </row>
+    <row r="172" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="28"/>
+      <c r="B172" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C172" s="25"/>
+      <c r="D172" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E172" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
-    <mergeCell ref="G107:J107"/>
+  <mergeCells count="210">
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="A127:A168"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="B166:E166"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="B160:C162"/>
+    <mergeCell ref="D160:E162"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="B155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="F114:F126"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="G116:G122"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="G115:J115"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="G106:J106"/>
     <mergeCell ref="B85:D85"/>
+    <mergeCell ref="G112:H112"/>
     <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I112:J112"/>
     <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
     <mergeCell ref="A109:B113"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="B87:B97"/>
-    <mergeCell ref="G108:J112"/>
-    <mergeCell ref="F108:F114"/>
+    <mergeCell ref="G107:J111"/>
+    <mergeCell ref="F107:F113"/>
     <mergeCell ref="A79:A108"/>
     <mergeCell ref="B98:E108"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="F103:G106"/>
-    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="F102:G105"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H105:I105"/>
     <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="F92:F98"/>
+    <mergeCell ref="F91:F97"/>
+    <mergeCell ref="H93:I93"/>
     <mergeCell ref="H94:I94"/>
     <mergeCell ref="H95:I95"/>
     <mergeCell ref="H96:I96"/>
     <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="G93:G98"/>
+    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="H89:I89"/>
     <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:I99"/>
     <mergeCell ref="F70:J70"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F88:F91"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="F71:G73"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="F75:G77"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:I88"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D5:E5"/>
@@ -3763,14 +4500,15 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A65:E74"/>
-    <mergeCell ref="C96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F87:F90"/>
     <mergeCell ref="C94:D95"/>
     <mergeCell ref="E94:E95"/>
     <mergeCell ref="C88:D88"/>
@@ -3780,12 +4518,12 @@
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F71:G73"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
     <mergeCell ref="F64:F67"/>
     <mergeCell ref="H68:J68"/>
     <mergeCell ref="H69:J69"/>
@@ -3796,16 +4534,14 @@
     <mergeCell ref="H65:I65"/>
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H67:I67"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="A65:E74"/>
+    <mergeCell ref="C96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E90:E92"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="F78:G80"/>
     <mergeCell ref="H82:I82"/>
@@ -3814,19 +4550,10 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="H78:J78"/>
     <mergeCell ref="H81:J81"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="F75:G77"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="F85:F86"/>
     <mergeCell ref="G86:H86"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="G85:H85"/>
     <mergeCell ref="H83:I83"/>
     <mergeCell ref="F81:G83"/>
     <mergeCell ref="C115:E115"/>
@@ -3841,8 +4568,13 @@
     <mergeCell ref="B118:B120"/>
     <mergeCell ref="C118:D118"/>
     <mergeCell ref="C119:D119"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Linux.xlsx
+++ b/Linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[fvlnx9510]_linux_operating_system_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67038841-8257-4C7C-85A9-5BAF8B130625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130A8EF7-CB79-487E-8364-75E58F75BC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20700" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="280">
   <si>
     <t>Install</t>
   </si>
@@ -846,6 +846,101 @@
   </si>
   <si>
     <t>used to locate ls completely</t>
+  </si>
+  <si>
+    <t>The Command Line Interface (CLI)</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>function name (){command}</t>
+  </si>
+  <si>
+    <t>Display line of text/string</t>
+  </si>
+  <si>
+    <t>Display the calendar</t>
+  </si>
+  <si>
+    <t>Display the date</t>
+  </si>
+  <si>
+    <t>function say_hello {echo Hello}</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>alias shortcut='cat info.log'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortcut </t>
+  </si>
+  <si>
+    <t>unalias shortcut</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>a=3</t>
+  </si>
+  <si>
+    <t>Show variable value</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>history -c</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>Clear history</t>
+  </si>
+  <si>
+    <t>Show commands history</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1280,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1320,25 +1415,52 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1386,97 +1508,91 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1490,11 +1606,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1684,6 +1803,55 @@
         <a:xfrm>
           <a:off x="673849" y="12846541"/>
           <a:ext cx="2393689" cy="1201613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>185615</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E192A872-91BA-5345-DE2B-33F16EFCD955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="5065"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="664308" y="2012461"/>
+          <a:ext cx="2002692" cy="1501189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1960,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A151" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106:J106"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A19" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1970,13 +2138,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -1984,13 +2152,13 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -1998,13 +2166,13 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -2012,13 +2180,13 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -2029,14 +2197,14 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -2044,15 +2212,15 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -2060,17 +2228,17 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2078,13 +2246,13 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2095,12 +2263,12 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -2108,15 +2276,15 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -2124,13 +2292,13 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="61" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -2138,13 +2306,13 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="61" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2152,13 +2320,13 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -2178,11 +2346,13 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -2190,11 +2360,11 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -2202,11 +2372,11 @@
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -2214,11 +2384,11 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2226,11 +2396,11 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2238,11 +2408,11 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2250,11 +2420,11 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2262,11 +2432,11 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2274,11 +2444,11 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2286,11 +2456,11 @@
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2298,11 +2468,11 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -2310,11 +2480,11 @@
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -2322,11 +2492,11 @@
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2346,11 +2516,6 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -2358,11 +2523,15 @@
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B30" s="88"/>
+      <c r="C30" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2370,11 +2539,15 @@
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" s="88"/>
+      <c r="C31" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2382,11 +2555,15 @@
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" s="88"/>
+      <c r="C32" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -2394,11 +2571,15 @@
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -2406,11 +2587,15 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -2418,11 +2603,15 @@
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2430,11 +2619,15 @@
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2442,11 +2635,13 @@
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -2454,11 +2649,15 @@
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="A38" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -2466,11 +2665,15 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="E39" s="73"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2478,11 +2681,17 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="A40" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="25" t="s">
+        <v>276</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -2490,11 +2699,15 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="25" t="s">
+        <v>275</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2766,208 +2979,208 @@
       <c r="J63" s="10"/>
     </row>
     <row r="64" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="26" t="s">
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="37" t="s">
         <v>86</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H64" s="27" t="s">
+      <c r="H64" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="23" t="s">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="25"/>
+      <c r="I65" s="28"/>
       <c r="J65" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="25" t="s">
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I66" s="25"/>
+      <c r="I66" s="28"/>
       <c r="J66" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="25" t="s">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="25"/>
+      <c r="I67" s="28"/>
       <c r="J67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="30" t="s">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="29" t="s">
+      <c r="G68" s="39"/>
+      <c r="H68" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
     </row>
     <row r="69" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="30" t="s">
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="29" t="s">
+      <c r="G69" s="39"/>
+      <c r="H69" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
     </row>
     <row r="70" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="51" t="s">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="51"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
     </row>
     <row r="71" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="28" t="s">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="28"/>
-      <c r="H71" s="27" t="s">
+      <c r="G71" s="33"/>
+      <c r="H71" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="25" t="s">
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="I72" s="25"/>
+      <c r="I72" s="28"/>
       <c r="J72" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="25" t="s">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I73" s="25"/>
+      <c r="I73" s="28"/>
       <c r="J73" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="30" t="s">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="G74" s="30"/>
-      <c r="H74" s="27" t="s">
+      <c r="G74" s="39"/>
+      <c r="H74" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
     </row>
     <row r="75" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="26" t="s">
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="29" t="s">
+      <c r="G75" s="37"/>
+      <c r="H75" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
     </row>
     <row r="76" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="26"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="13" t="s">
         <v>23</v>
       </c>
@@ -2977,21 +3190,21 @@
       <c r="E76" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="25" t="s">
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="I76" s="25"/>
+      <c r="I76" s="28"/>
       <c r="J76" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="28"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="19" t="s">
         <v>29</v>
       </c>
@@ -3001,171 +3214,171 @@
       <c r="E77" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="29" t="s">
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
     </row>
     <row r="78" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="26" t="s">
+      <c r="E78" s="26"/>
+      <c r="F78" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="29" t="s">
+      <c r="G78" s="37"/>
+      <c r="H78" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
     </row>
     <row r="79" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="25" t="s">
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="I79" s="25"/>
+      <c r="I79" s="28"/>
       <c r="J79" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="25" t="s">
+      <c r="A80" s="33"/>
+      <c r="B80" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
       <c r="E80" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="25" t="s">
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I80" s="25"/>
+      <c r="I80" s="28"/>
       <c r="J80" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="25" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="26" t="s">
+      <c r="F81" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G81" s="26"/>
-      <c r="H81" s="29" t="s">
+      <c r="G81" s="37"/>
+      <c r="H81" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="I81" s="29"/>
-      <c r="J81" s="29"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
     </row>
     <row r="82" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="25" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
       <c r="E82" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="25" t="s">
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="I82" s="25"/>
+      <c r="I82" s="28"/>
       <c r="J82" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="25" t="s">
+      <c r="A83" s="33"/>
+      <c r="B83" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
       <c r="E83" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="25" t="s">
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="I83" s="25"/>
+      <c r="I83" s="28"/>
       <c r="J83" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="25" t="s">
+      <c r="A84" s="33"/>
+      <c r="B84" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
       <c r="E84" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F84" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G84" s="30"/>
-      <c r="H84" s="29" t="s">
+      <c r="G84" s="39"/>
+      <c r="H84" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
     </row>
     <row r="85" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="25" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
       <c r="E85" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="28" t="s">
+      <c r="F85" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G85" s="24" t="s">
+      <c r="G85" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H85" s="24"/>
+      <c r="H85" s="36"/>
       <c r="I85" s="21" t="s">
         <v>127</v>
       </c>
@@ -3174,1197 +3387,1217 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="23" t="s">
+      <c r="A86" s="33"/>
+      <c r="B86" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
       <c r="E86" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="23" t="s">
+      <c r="F86" s="33"/>
+      <c r="G86" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="H86" s="23"/>
-      <c r="I86" s="29" t="s">
+      <c r="H86" s="35"/>
+      <c r="I86" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="J86" s="29"/>
+      <c r="J86" s="34"/>
     </row>
     <row r="87" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="26" t="s">
+      <c r="A87" s="33"/>
+      <c r="B87" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D87" s="25"/>
+      <c r="D87" s="28"/>
       <c r="E87" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F87" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G87" s="27" t="s">
+      <c r="G87" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="25" t="s">
+      <c r="A88" s="33"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="25"/>
+      <c r="D88" s="28"/>
       <c r="E88" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F88" s="28"/>
-      <c r="G88" s="23" t="s">
+      <c r="F88" s="33"/>
+      <c r="G88" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="H88" s="45" t="s">
+      <c r="H88" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="I88" s="45"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="25" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="25"/>
+      <c r="D89" s="28"/>
       <c r="E89" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="28"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="45" t="s">
+      <c r="F89" s="33"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="I89" s="45"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="21" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="24" t="s">
+      <c r="A90" s="33"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="27" t="s">
+      <c r="D90" s="36"/>
+      <c r="E90" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F90" s="28"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="64" t="s">
+      <c r="F90" s="33"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="I90" s="64"/>
+      <c r="I90" s="73"/>
       <c r="J90" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="28" t="s">
+      <c r="A91" s="33"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="G91" s="27" t="s">
+      <c r="G91" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
     </row>
     <row r="92" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="23" t="s">
+      <c r="A92" s="33"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="H92" s="27" t="s">
+      <c r="H92" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="I92" s="27"/>
+      <c r="I92" s="26"/>
       <c r="J92" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="24" t="s">
+      <c r="A93" s="33"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D93" s="24"/>
+      <c r="D93" s="36"/>
       <c r="E93" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="28"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="27" t="s">
+      <c r="F93" s="33"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I93" s="27"/>
+      <c r="I93" s="26"/>
       <c r="J93" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="24" t="s">
+      <c r="A94" s="33"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="27" t="s">
+      <c r="D94" s="36"/>
+      <c r="E94" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="28"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="27" t="s">
+      <c r="F94" s="33"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="I94" s="27"/>
+      <c r="I94" s="26"/>
       <c r="J94" s="18" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="27" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="I95" s="27"/>
+      <c r="I95" s="26"/>
       <c r="J95" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="24" t="s">
+      <c r="A96" s="33"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="24"/>
-      <c r="E96" s="27" t="s">
+      <c r="D96" s="36"/>
+      <c r="E96" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F96" s="28"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="27" t="s">
+      <c r="F96" s="33"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="I96" s="27"/>
+      <c r="I96" s="26"/>
       <c r="J96" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="27" t="s">
+      <c r="A97" s="33"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="I97" s="27"/>
+      <c r="I97" s="26"/>
       <c r="J97" s="18" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="28" t="s">
+      <c r="A98" s="33"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="G98" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="99" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="23" t="s">
+      <c r="A99" s="33"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
       <c r="J99" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="76"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
       <c r="F100" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
     </row>
     <row r="101" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
       <c r="F101" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G101" s="25" t="s">
+      <c r="G101" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
       <c r="J101" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="28" t="s">
+      <c r="A102" s="33"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="G102" s="28"/>
-      <c r="H102" s="27" t="s">
+      <c r="G102" s="33"/>
+      <c r="H102" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="25" t="s">
+      <c r="A103" s="33"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="I103" s="25"/>
+      <c r="I103" s="28"/>
       <c r="J103" s="17" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="28"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="25" t="s">
+      <c r="A104" s="33"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="I104" s="25"/>
+      <c r="I104" s="28"/>
       <c r="J104" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="25" t="s">
+      <c r="A105" s="33"/>
+      <c r="B105" s="76"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="I105" s="25"/>
+      <c r="I105" s="28"/>
       <c r="J105" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="B106" s="72"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
       <c r="F106" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
     </row>
     <row r="107" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="28"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="67" t="s">
+      <c r="A107" s="33"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
     </row>
     <row r="108" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="28"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="64"/>
-      <c r="H108" s="64"/>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="75"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="73"/>
     </row>
     <row r="109" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26" t="s">
+      <c r="A109" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="29" t="s">
+      <c r="B109" s="37"/>
+      <c r="C109" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="64"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="64"/>
-      <c r="J109" s="64"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="73"/>
+      <c r="J109" s="73"/>
     </row>
     <row r="110" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="25" t="s">
+      <c r="A110" s="37"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="28"/>
       <c r="E110" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F110" s="67"/>
-      <c r="G110" s="64"/>
-      <c r="H110" s="64"/>
-      <c r="I110" s="64"/>
-      <c r="J110" s="64"/>
+      <c r="F110" s="75"/>
+      <c r="G110" s="73"/>
+      <c r="H110" s="73"/>
+      <c r="I110" s="73"/>
+      <c r="J110" s="73"/>
     </row>
     <row r="111" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="25" t="s">
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="25"/>
+      <c r="D111" s="28"/>
       <c r="E111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="67"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="73"/>
+      <c r="H111" s="73"/>
+      <c r="I111" s="73"/>
+      <c r="J111" s="73"/>
     </row>
     <row r="112" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="25" t="s">
+      <c r="A112" s="37"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="25"/>
+      <c r="D112" s="28"/>
       <c r="E112" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F112" s="67"/>
-      <c r="G112" s="68" t="s">
+      <c r="F112" s="75"/>
+      <c r="G112" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="H112" s="68"/>
-      <c r="I112" s="64" t="s">
+      <c r="H112" s="74"/>
+      <c r="I112" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="J112" s="64"/>
+      <c r="J112" s="73"/>
     </row>
     <row r="113" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="25" t="s">
+      <c r="A113" s="37"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D113" s="25"/>
+      <c r="D113" s="28"/>
       <c r="E113" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F113" s="67"/>
-      <c r="G113" s="68" t="s">
+      <c r="F113" s="75"/>
+      <c r="G113" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="H113" s="68"/>
-      <c r="I113" s="64" t="s">
+      <c r="H113" s="74"/>
+      <c r="I113" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="J113" s="64"/>
+      <c r="J113" s="73"/>
     </row>
     <row r="114" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="33" t="s">
         <v>84</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="67" t="s">
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="G114" s="69" t="s">
+      <c r="G114" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="H114" s="69"/>
-      <c r="I114" s="69"/>
-      <c r="J114" s="69"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
     </row>
     <row r="115" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="28"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="C115" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="65" t="s">
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="75"/>
+      <c r="G115" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65"/>
-      <c r="J115" s="65"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
     </row>
     <row r="116" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="28"/>
+      <c r="A116" s="33"/>
       <c r="B116" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="C116" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="67"/>
-      <c r="G116" s="45" t="s">
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="75"/>
+      <c r="G116" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="H116" s="64" t="s">
+      <c r="H116" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="I116" s="64"/>
-      <c r="J116" s="64"/>
+      <c r="I116" s="73"/>
+      <c r="J116" s="73"/>
     </row>
     <row r="117" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="28"/>
+      <c r="A117" s="33"/>
       <c r="B117" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="64" t="s">
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="75"/>
+      <c r="G117" s="72"/>
+      <c r="H117" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="I117" s="64"/>
-      <c r="J117" s="64"/>
+      <c r="I117" s="73"/>
+      <c r="J117" s="73"/>
     </row>
     <row r="118" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="28"/>
-      <c r="B118" s="23" t="s">
+      <c r="A118" s="33"/>
+      <c r="B118" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C118" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D118" s="25"/>
+      <c r="D118" s="28"/>
       <c r="E118" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="67"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="64" t="s">
+      <c r="F118" s="75"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
+      <c r="I118" s="73"/>
+      <c r="J118" s="73"/>
     </row>
     <row r="119" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="28"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="25" t="s">
+      <c r="A119" s="33"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D119" s="25"/>
+      <c r="D119" s="28"/>
       <c r="E119" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F119" s="67"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="64" t="s">
+      <c r="F119" s="75"/>
+      <c r="G119" s="72"/>
+      <c r="H119" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="I119" s="64"/>
-      <c r="J119" s="64"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="73"/>
     </row>
     <row r="120" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="28"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="25" t="s">
+      <c r="A120" s="33"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D120" s="25"/>
+      <c r="D120" s="28"/>
       <c r="E120" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F120" s="67"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="64" t="s">
+      <c r="F120" s="75"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="I120" s="64"/>
-      <c r="J120" s="64"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="73"/>
     </row>
     <row r="121" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="26" t="s">
+      <c r="A121" s="37" t="s">
         <v>85</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="64" t="s">
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="I121" s="64"/>
-      <c r="J121" s="64"/>
+      <c r="I121" s="73"/>
+      <c r="J121" s="73"/>
     </row>
     <row r="122" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
-      <c r="B122" s="23" t="s">
+      <c r="A122" s="37"/>
+      <c r="B122" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C122" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D122" s="25"/>
+      <c r="D122" s="28"/>
       <c r="E122" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F122" s="67"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="64" t="s">
+      <c r="F122" s="75"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
+      <c r="I122" s="73"/>
+      <c r="J122" s="73"/>
     </row>
     <row r="123" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="26"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="25" t="s">
+      <c r="A123" s="37"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D123" s="25"/>
+      <c r="D123" s="28"/>
       <c r="E123" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F123" s="67"/>
-      <c r="G123" s="70" t="s">
+      <c r="F123" s="75"/>
+      <c r="G123" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="H123" s="70"/>
-      <c r="I123" s="70"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="77"/>
       <c r="J123" s="21" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="26"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="71" t="s">
+      <c r="A124" s="37"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="71"/>
+      <c r="D124" s="38"/>
       <c r="E124" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F124" s="67"/>
-      <c r="G124" s="82" t="s">
+      <c r="F124" s="75"/>
+      <c r="G124" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="H124" s="82"/>
-      <c r="I124" s="82"/>
-      <c r="J124" s="82"/>
+      <c r="H124" s="78"/>
+      <c r="I124" s="78"/>
+      <c r="J124" s="78"/>
     </row>
     <row r="125" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="26"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="25" t="s">
+      <c r="A125" s="37"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D125" s="25"/>
+      <c r="D125" s="28"/>
       <c r="E125" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F125" s="67"/>
-      <c r="G125" s="64" t="s">
+      <c r="F125" s="75"/>
+      <c r="G125" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="H125" s="64"/>
-      <c r="I125" s="64"/>
-      <c r="J125" s="64"/>
+      <c r="H125" s="73"/>
+      <c r="I125" s="73"/>
+      <c r="J125" s="73"/>
     </row>
     <row r="126" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="25" t="s">
+      <c r="A126" s="37"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D126" s="25"/>
+      <c r="D126" s="28"/>
       <c r="E126" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F126" s="67"/>
-      <c r="G126" s="23" t="s">
+      <c r="F126" s="75"/>
+      <c r="G126" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="H126" s="23"/>
-      <c r="I126" s="64" t="s">
+      <c r="H126" s="35"/>
+      <c r="I126" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="J126" s="64"/>
+      <c r="J126" s="73"/>
     </row>
     <row r="127" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="26" t="s">
+      <c r="A127" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="B127" s="81" t="s">
+      <c r="B127" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="C127" s="81"/>
-      <c r="D127" s="81"/>
-      <c r="E127" s="81"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="83"/>
     </row>
     <row r="128" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="26"/>
-      <c r="B128" s="23" t="s">
+      <c r="A128" s="37"/>
+      <c r="B128" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C128" s="23"/>
-      <c r="D128" s="66" t="s">
+      <c r="C128" s="35"/>
+      <c r="D128" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="E128" s="66"/>
+      <c r="E128" s="80"/>
     </row>
     <row r="129" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26"/>
-      <c r="B129" s="81" t="s">
+      <c r="A129" s="37"/>
+      <c r="B129" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="C129" s="81"/>
-      <c r="D129" s="81"/>
-      <c r="E129" s="81"/>
+      <c r="C129" s="83"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="83"/>
     </row>
     <row r="130" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
-      <c r="B130" s="66" t="s">
+      <c r="A130" s="37"/>
+      <c r="B130" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="C130" s="66" t="s">
+      <c r="C130" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="D130" s="66"/>
-      <c r="E130" s="66"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="80"/>
     </row>
     <row r="131" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="66"/>
-      <c r="C131" s="66" t="s">
+      <c r="A131" s="37"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="D131" s="66"/>
-      <c r="E131" s="66"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="80"/>
     </row>
     <row r="132" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="66" t="s">
+      <c r="A132" s="37"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="D132" s="66"/>
-      <c r="E132" s="66"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
     </row>
     <row r="133" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="66"/>
-      <c r="C133" s="66" t="s">
+      <c r="A133" s="37"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="D133" s="66"/>
-      <c r="E133" s="66"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
     </row>
     <row r="134" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26"/>
-      <c r="B134" s="66"/>
-      <c r="C134" s="66" t="s">
+      <c r="A134" s="37"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="D134" s="66"/>
-      <c r="E134" s="66"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="80"/>
     </row>
     <row r="135" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="26"/>
-      <c r="B135" s="66"/>
-      <c r="C135" s="66" t="s">
+      <c r="A135" s="37"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="D135" s="66"/>
-      <c r="E135" s="66"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="80"/>
     </row>
     <row r="136" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="26"/>
-      <c r="B136" s="24" t="s">
+      <c r="A136" s="37"/>
+      <c r="B136" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C136" s="24"/>
-      <c r="D136" s="75" t="s">
+      <c r="C136" s="36"/>
+      <c r="D136" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="E136" s="75"/>
+      <c r="E136" s="81"/>
     </row>
     <row r="137" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="26"/>
-      <c r="B137" s="24" t="s">
+      <c r="A137" s="37"/>
+      <c r="B137" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="C137" s="24"/>
-      <c r="D137" s="75" t="s">
+      <c r="C137" s="36"/>
+      <c r="D137" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="E137" s="75"/>
+      <c r="E137" s="81"/>
     </row>
     <row r="138" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="26"/>
-      <c r="B138" s="24" t="s">
+      <c r="A138" s="37"/>
+      <c r="B138" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C138" s="24"/>
-      <c r="D138" s="73" t="s">
+      <c r="C138" s="36"/>
+      <c r="D138" s="82" t="s">
         <v>208</v>
       </c>
-      <c r="E138" s="73"/>
+      <c r="E138" s="82"/>
     </row>
     <row r="139" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="26"/>
-      <c r="B139" s="78" t="s">
+      <c r="A139" s="37"/>
+      <c r="B139" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C139" s="79"/>
-      <c r="D139" s="79"/>
-      <c r="E139" s="80"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="86"/>
+      <c r="E139" s="87"/>
     </row>
     <row r="140" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="26"/>
-      <c r="B140" s="66" t="s">
+      <c r="A140" s="37"/>
+      <c r="B140" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="C140" s="66"/>
-      <c r="D140" s="66" t="s">
+      <c r="C140" s="80"/>
+      <c r="D140" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="E140" s="66"/>
+      <c r="E140" s="80"/>
     </row>
     <row r="141" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="26"/>
-      <c r="B141" s="23" t="s">
+      <c r="A141" s="37"/>
+      <c r="B141" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="23"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="76" t="s">
+      <c r="C141" s="35"/>
+      <c r="D141" s="35"/>
+      <c r="E141" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="26"/>
-      <c r="B142" s="23" t="s">
+      <c r="A142" s="37"/>
+      <c r="B142" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
-      <c r="E142" s="74" t="s">
+      <c r="C142" s="35"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="26"/>
-      <c r="B143" s="24" t="s">
+      <c r="A143" s="37"/>
+      <c r="B143" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="75" t="s">
+      <c r="C143" s="36"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="81" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="26"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="75"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="81"/>
     </row>
     <row r="145" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
-      <c r="B145" s="81" t="s">
+      <c r="A145" s="37"/>
+      <c r="B145" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="C145" s="81"/>
-      <c r="D145" s="81"/>
-      <c r="E145" s="81"/>
+      <c r="C145" s="83"/>
+      <c r="D145" s="83"/>
+      <c r="E145" s="83"/>
     </row>
     <row r="146" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="26"/>
-      <c r="B146" s="66" t="s">
+      <c r="A146" s="37"/>
+      <c r="B146" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="C146" s="66"/>
-      <c r="D146" s="66" t="s">
+      <c r="C146" s="80"/>
+      <c r="D146" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="E146" s="66"/>
+      <c r="E146" s="80"/>
     </row>
     <row r="147" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="26"/>
-      <c r="B147" s="23" t="s">
+      <c r="A147" s="37"/>
+      <c r="B147" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
-      <c r="E147" s="74" t="s">
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="23" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="26"/>
-      <c r="B148" s="23" t="s">
+      <c r="A148" s="37"/>
+      <c r="B148" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="74" t="s">
+      <c r="C148" s="35"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="23" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="26"/>
-      <c r="B149" s="24" t="s">
+      <c r="A149" s="37"/>
+      <c r="B149" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="66" t="s">
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="80" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="26"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="66"/>
+      <c r="A150" s="37"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="80"/>
     </row>
     <row r="151" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="26"/>
-      <c r="B151" s="81" t="s">
+      <c r="A151" s="37"/>
+      <c r="B151" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="81"/>
-      <c r="D151" s="81"/>
-      <c r="E151" s="81"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="83"/>
     </row>
     <row r="152" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="26"/>
-      <c r="B152" s="66" t="s">
+      <c r="A152" s="37"/>
+      <c r="B152" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="C152" s="66"/>
-      <c r="D152" s="66"/>
-      <c r="E152" s="66"/>
+      <c r="C152" s="80"/>
+      <c r="D152" s="80"/>
+      <c r="E152" s="80"/>
     </row>
     <row r="153" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="26"/>
-      <c r="B153" s="77" t="s">
+      <c r="A153" s="37"/>
+      <c r="B153" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="C153" s="77"/>
-      <c r="D153" s="77"/>
-      <c r="E153" s="73" t="s">
+      <c r="C153" s="84"/>
+      <c r="D153" s="84"/>
+      <c r="E153" s="82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="26"/>
-      <c r="B154" s="77"/>
-      <c r="C154" s="77"/>
-      <c r="D154" s="77"/>
-      <c r="E154" s="73"/>
+      <c r="A154" s="37"/>
+      <c r="B154" s="84"/>
+      <c r="C154" s="84"/>
+      <c r="D154" s="84"/>
+      <c r="E154" s="82"/>
     </row>
     <row r="155" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="26"/>
-      <c r="B155" s="77" t="s">
+      <c r="A155" s="37"/>
+      <c r="B155" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="C155" s="77"/>
-      <c r="D155" s="77"/>
-      <c r="E155" s="73" t="s">
+      <c r="C155" s="84"/>
+      <c r="D155" s="84"/>
+      <c r="E155" s="82" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="26"/>
-      <c r="B156" s="77"/>
-      <c r="C156" s="77"/>
-      <c r="D156" s="77"/>
-      <c r="E156" s="73"/>
+      <c r="A156" s="37"/>
+      <c r="B156" s="84"/>
+      <c r="C156" s="84"/>
+      <c r="D156" s="84"/>
+      <c r="E156" s="82"/>
     </row>
     <row r="157" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="26"/>
-      <c r="B157" s="81" t="s">
+      <c r="A157" s="37"/>
+      <c r="B157" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="C157" s="81"/>
-      <c r="D157" s="81"/>
-      <c r="E157" s="81"/>
+      <c r="C157" s="83"/>
+      <c r="D157" s="83"/>
+      <c r="E157" s="83"/>
     </row>
     <row r="158" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="26"/>
-      <c r="B158" s="66" t="s">
+      <c r="A158" s="37"/>
+      <c r="B158" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="C158" s="66"/>
-      <c r="D158" s="66" t="s">
+      <c r="C158" s="80"/>
+      <c r="D158" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="E158" s="66"/>
+      <c r="E158" s="80"/>
     </row>
     <row r="159" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="26"/>
-      <c r="B159" s="23" t="s">
+      <c r="A159" s="37"/>
+      <c r="B159" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="C159" s="23"/>
-      <c r="D159" s="66" t="s">
+      <c r="C159" s="35"/>
+      <c r="D159" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="E159" s="66"/>
+      <c r="E159" s="80"/>
     </row>
     <row r="160" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
-      <c r="B160" s="24" t="s">
+      <c r="A160" s="37"/>
+      <c r="B160" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C160" s="24"/>
-      <c r="D160" s="75" t="s">
+      <c r="C160" s="36"/>
+      <c r="D160" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="E160" s="75"/>
+      <c r="E160" s="81"/>
     </row>
     <row r="161" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="75"/>
-      <c r="E161" s="75"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="81"/>
+      <c r="E161" s="81"/>
     </row>
     <row r="162" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="75"/>
-      <c r="E162" s="75"/>
+      <c r="A162" s="37"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="81"/>
     </row>
     <row r="163" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="26"/>
-      <c r="B163" s="81" t="s">
+      <c r="A163" s="37"/>
+      <c r="B163" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="C163" s="81"/>
-      <c r="D163" s="81"/>
-      <c r="E163" s="81"/>
+      <c r="C163" s="83"/>
+      <c r="D163" s="83"/>
+      <c r="E163" s="83"/>
     </row>
     <row r="164" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="26"/>
-      <c r="B164" s="66" t="s">
+      <c r="A164" s="37"/>
+      <c r="B164" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="C164" s="66"/>
-      <c r="D164" s="66"/>
-      <c r="E164" s="66"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="80"/>
+      <c r="E164" s="80"/>
     </row>
     <row r="165" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="26"/>
-      <c r="B165" s="23" t="s">
+      <c r="A165" s="37"/>
+      <c r="B165" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="C165" s="23"/>
-      <c r="D165" s="66" t="s">
+      <c r="C165" s="35"/>
+      <c r="D165" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="E165" s="66"/>
+      <c r="E165" s="80"/>
     </row>
     <row r="166" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="26"/>
-      <c r="B166" s="81" t="s">
+      <c r="A166" s="37"/>
+      <c r="B166" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="C166" s="81"/>
-      <c r="D166" s="81"/>
-      <c r="E166" s="81"/>
+      <c r="C166" s="83"/>
+      <c r="D166" s="83"/>
+      <c r="E166" s="83"/>
     </row>
     <row r="167" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="26"/>
-      <c r="B167" s="27" t="s">
+      <c r="A167" s="37"/>
+      <c r="B167" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="27"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
     </row>
     <row r="168" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="26"/>
-      <c r="B168" s="23" t="s">
+      <c r="A168" s="37"/>
+      <c r="B168" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="C168" s="23"/>
-      <c r="D168" s="27" t="s">
+      <c r="C168" s="35"/>
+      <c r="D168" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="E168" s="27"/>
+      <c r="E168" s="26"/>
     </row>
     <row r="169" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="B169" s="29" t="s">
+      <c r="B169" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
     </row>
     <row r="170" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="28"/>
-      <c r="B170" s="25" t="s">
+      <c r="A170" s="33"/>
+      <c r="B170" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="C170" s="25"/>
-      <c r="D170" s="29" t="s">
+      <c r="C170" s="28"/>
+      <c r="D170" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="E170" s="29"/>
+      <c r="E170" s="34"/>
     </row>
     <row r="171" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="28"/>
-      <c r="B171" s="29" t="s">
+      <c r="A171" s="33"/>
+      <c r="B171" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
     </row>
     <row r="172" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="28"/>
-      <c r="B172" s="25" t="s">
+      <c r="A172" s="33"/>
+      <c r="B172" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C172" s="25"/>
-      <c r="D172" s="29" t="s">
+      <c r="C172" s="28"/>
+      <c r="D172" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E172" s="29"/>
+      <c r="E172" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="210">
+  <mergeCells count="232">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="B169:E169"/>
     <mergeCell ref="B171:E171"/>
     <mergeCell ref="B170:C170"/>
@@ -4425,6 +4658,8 @@
     <mergeCell ref="C135:E135"/>
     <mergeCell ref="D136:E136"/>
     <mergeCell ref="B136:C136"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
     <mergeCell ref="F114:F126"/>
     <mergeCell ref="G123:I123"/>
     <mergeCell ref="G116:G122"/>
@@ -4440,6 +4675,8 @@
     <mergeCell ref="H120:J120"/>
     <mergeCell ref="H121:J121"/>
     <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H82:I82"/>
     <mergeCell ref="G106:J106"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="G112:H112"/>
@@ -4462,17 +4699,6 @@
     <mergeCell ref="H104:I104"/>
     <mergeCell ref="F91:F97"/>
     <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="G92:G97"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="F70:J70"/>
     <mergeCell ref="F71:G73"/>
     <mergeCell ref="H71:J71"/>
     <mergeCell ref="H72:I72"/>
@@ -4483,9 +4709,15 @@
     <mergeCell ref="F75:G77"/>
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="H77:J77"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="F78:G80"/>
+    <mergeCell ref="F84:G84"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D5:E5"/>
@@ -4500,15 +4732,15 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="A65:E74"/>
+    <mergeCell ref="C96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E90:E92"/>
     <mergeCell ref="C94:D95"/>
     <mergeCell ref="E94:E95"/>
     <mergeCell ref="C88:D88"/>
@@ -4518,12 +4750,8 @@
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="D78:E78"/>
     <mergeCell ref="F64:F67"/>
     <mergeCell ref="H68:J68"/>
     <mergeCell ref="H69:J69"/>
@@ -4534,21 +4762,6 @@
     <mergeCell ref="H65:I65"/>
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A65:E74"/>
-    <mergeCell ref="C96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="F78:G80"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H78:J78"/>
     <mergeCell ref="H81:J81"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="F85:F86"/>
@@ -4556,6 +4769,32 @@
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="H83:I83"/>
     <mergeCell ref="F81:G83"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E27"/>
     <mergeCell ref="C115:E115"/>
     <mergeCell ref="C116:E116"/>
     <mergeCell ref="A114:A120"/>
@@ -4568,13 +4807,9 @@
     <mergeCell ref="B118:B120"/>
     <mergeCell ref="C118:D118"/>
     <mergeCell ref="C119:D119"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H78:J78"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Linux.xlsx
+++ b/Linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[fvlnx9510]_linux_operating_system_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130A8EF7-CB79-487E-8364-75E58F75BC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586252DD-B0A7-46D9-AC7D-6C7C3B768590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20700" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="320">
   <si>
     <t>Install</t>
   </si>
@@ -942,12 +942,240 @@
       <t>a</t>
     </r>
   </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Substitute user</t>
+  </si>
+  <si>
+    <t>su -user_name</t>
+  </si>
+  <si>
+    <t>su -</t>
+  </si>
+  <si>
+    <t>sudo su</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Super user</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User_name@Host_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Currentdirectory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> User_name@Host_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Currentdirectory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+  </si>
+  <si>
+    <t>whoami</t>
+  </si>
+  <si>
+    <t>Display user name</t>
+  </si>
+  <si>
+    <t>Display host name</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>passwd</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>uname -a</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>Display Operating systems</t>
+  </si>
+  <si>
+    <t>Display system's architecture</t>
+  </si>
+  <si>
+    <t>List active users</t>
+  </si>
+  <si>
+    <t>Start new bash shell</t>
+  </si>
+  <si>
+    <t>bash</t>
+  </si>
+  <si>
+    <t>Commands manual</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>man</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> command</t>
+    </r>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / word</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>apropos word</t>
+  </si>
+  <si>
+    <t>apropos net</t>
+  </si>
+  <si>
+    <t>commands related with net</t>
+  </si>
+  <si>
+    <t>Search in  commands</t>
+  </si>
+  <si>
+    <t>!418</t>
+  </si>
+  <si>
+    <t>Run 418 history</t>
+  </si>
+  <si>
+    <t>history 10</t>
+  </si>
+  <si>
+    <t>Show last 10 commands</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,6 +1248,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1053,7 +1302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1370,12 +1619,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1389,7 +1671,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1421,10 +1702,42 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,27 +1761,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1553,19 +1861,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1609,11 +1907,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2128,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A19" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:E38"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A169" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2138,13 +2460,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -2152,13 +2474,13 @@
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -2166,13 +2488,13 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -2180,13 +2502,13 @@
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -2197,14 +2519,14 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="58"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -2212,15 +2534,15 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -2228,17 +2550,17 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2246,13 +2568,13 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2263,12 +2585,12 @@
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="44"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -2276,15 +2598,15 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="69" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -2292,13 +2614,13 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="69" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -2306,13 +2628,13 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="69" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="79"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2320,13 +2642,13 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="41" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -2346,13 +2668,13 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -2360,11 +2682,11 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -2372,11 +2694,11 @@
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -2384,11 +2706,11 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2396,11 +2718,11 @@
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -2408,11 +2730,11 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2420,11 +2742,11 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2432,11 +2754,11 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2444,11 +2766,11 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2456,11 +2778,11 @@
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2468,11 +2790,11 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -2480,11 +2802,11 @@
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -2492,11 +2814,11 @@
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2516,132 +2838,142 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
+      <c r="A31" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>285</v>
+      </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="B33" s="72" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
+      <c r="A33" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
-      <c r="B34" s="89" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="B35" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
-      <c r="B36" s="88" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="75"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
+      <c r="A37" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37" s="102" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -2649,15 +2981,15 @@
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" s="73" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="28" t="s">
+        <v>313</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -2665,15 +2997,11 @@
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="73" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="73"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -2681,17 +3009,11 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="B40" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="25" t="s">
-        <v>276</v>
-      </c>
+      <c r="A40" s="30"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -2699,15 +3021,11 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="25" t="s">
-        <v>275</v>
-      </c>
+      <c r="A41" s="30"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2715,11 +3033,15 @@
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -2727,11 +3049,15 @@
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -2739,11 +3065,15 @@
       <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" s="81"/>
+      <c r="C44" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -2751,11 +3081,15 @@
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="A45" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -2763,11 +3097,15 @@
       <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="A46" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -2775,11 +3113,15 @@
       <c r="J46" s="10"/>
     </row>
     <row r="47" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="A47" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="81"/>
+      <c r="C47" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -2787,11 +3129,15 @@
       <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="A48" s="81" t="s">
+        <v>299</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -2799,11 +3145,15 @@
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="A49" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="81"/>
+      <c r="C49" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -2811,11 +3161,15 @@
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="A50" s="81" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="81"/>
+      <c r="C50" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -2823,11 +3177,15 @@
       <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="A51" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="B51" s="81"/>
+      <c r="C51" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -2835,11 +3193,15 @@
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="A52" s="81" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -2847,11 +3209,15 @@
       <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -2859,11 +3225,15 @@
       <c r="J53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="A54" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -2871,11 +3241,15 @@
       <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -2883,11 +3257,13 @@
       <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -2895,11 +3271,15 @@
       <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="A57" s="81" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -2907,11 +3287,15 @@
       <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" s="80"/>
+      <c r="D58" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" s="49"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -2919,11 +3303,17 @@
       <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="A59" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="27" t="s">
+        <v>276</v>
+      </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -2931,11 +3321,15 @@
       <c r="J59" s="10"/>
     </row>
     <row r="60" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="27" t="s">
+        <v>275</v>
+      </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -2943,11 +3337,15 @@
       <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="27" t="s">
+        <v>316</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -2955,11 +3353,15 @@
       <c r="J61" s="10"/>
     </row>
     <row r="62" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="27" t="s">
+        <v>318</v>
+      </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -2967,11 +3369,11 @@
       <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -2979,1625 +3381,1636 @@
       <c r="J63" s="10"/>
     </row>
     <row r="64" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="37" t="s">
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="15" t="s">
+      <c r="G64" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
     </row>
     <row r="65" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="35" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H65" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="28"/>
+      <c r="I65" s="39"/>
       <c r="J65" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="28" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="I66" s="28"/>
+      <c r="I66" s="39"/>
       <c r="J66" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="28" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="28"/>
+      <c r="I67" s="39"/>
       <c r="J67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="39" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="34" t="s">
+      <c r="G68" s="50"/>
+      <c r="H68" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
     </row>
     <row r="69" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="39" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="34" t="s">
+      <c r="G69" s="50"/>
+      <c r="H69" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="59" t="s">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="69"/>
+      <c r="J70" s="69"/>
     </row>
     <row r="71" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="33" t="s">
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="33"/>
-      <c r="H71" s="26" t="s">
+      <c r="G71" s="44"/>
+      <c r="H71" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
     </row>
     <row r="72" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="28" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="I72" s="28"/>
-      <c r="J72" s="17" t="s">
+      <c r="I72" s="39"/>
+      <c r="J72" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="28" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="I73" s="28"/>
-      <c r="J73" s="17" t="s">
+      <c r="I73" s="39"/>
+      <c r="J73" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="39" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="G74" s="39"/>
-      <c r="H74" s="26" t="s">
+      <c r="G74" s="50"/>
+      <c r="H74" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59" t="s">
+      <c r="A75" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="37" t="s">
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="37"/>
-      <c r="H75" s="34" t="s">
+      <c r="G75" s="34"/>
+      <c r="H75" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
     </row>
     <row r="76" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="37"/>
-      <c r="C76" s="13" t="s">
+      <c r="B76" s="34"/>
+      <c r="C76" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="28" t="s">
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="I76" s="28"/>
-      <c r="J76" s="17" t="s">
+      <c r="I76" s="39"/>
+      <c r="J76" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="19" t="s">
+      <c r="B77" s="44"/>
+      <c r="C77" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="34" t="s">
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
     </row>
     <row r="78" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="19" t="s">
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="37" t="s">
+      <c r="E78" s="37"/>
+      <c r="F78" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="37"/>
-      <c r="H78" s="34" t="s">
+      <c r="G78" s="34"/>
+      <c r="H78" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="28" t="s">
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I79" s="28"/>
+      <c r="I79" s="39"/>
       <c r="J79" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="28" t="s">
+      <c r="A80" s="44"/>
+      <c r="B80" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="17" t="s">
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="28" t="s">
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="I80" s="28"/>
+      <c r="I80" s="39"/>
       <c r="J80" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="28" t="s">
+      <c r="A81" s="44"/>
+      <c r="B81" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="17" t="s">
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="37" t="s">
+      <c r="F81" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="34" t="s">
+      <c r="G81" s="97"/>
+      <c r="H81" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
     </row>
     <row r="82" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="28" t="s">
+      <c r="A82" s="44"/>
+      <c r="B82" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="17" t="s">
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="28" t="s">
+      <c r="F82" s="98"/>
+      <c r="G82" s="99"/>
+      <c r="H82" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="I82" s="28"/>
+      <c r="I82" s="39"/>
       <c r="J82" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="28" t="s">
+      <c r="A83" s="44"/>
+      <c r="B83" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="17" t="s">
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="28" t="s">
+      <c r="F83" s="100"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="I83" s="28"/>
+      <c r="I83" s="39"/>
       <c r="J83" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="28" t="s">
+      <c r="A84" s="44"/>
+      <c r="B84" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="17" t="s">
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="39" t="s">
+      <c r="F84" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G84" s="39"/>
-      <c r="H84" s="34" t="s">
+      <c r="G84" s="50"/>
+      <c r="H84" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
     </row>
     <row r="85" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="28" t="s">
+      <c r="A85" s="44"/>
+      <c r="B85" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="17" t="s">
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="33" t="s">
+      <c r="F85" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G85" s="36" t="s">
+      <c r="G85" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="H85" s="36"/>
-      <c r="I85" s="21" t="s">
+      <c r="H85" s="46"/>
+      <c r="I85" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="J85" s="17" t="s">
+      <c r="J85" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="35" t="s">
+      <c r="A86" s="44"/>
+      <c r="B86" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="17" t="s">
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F86" s="33"/>
-      <c r="G86" s="35" t="s">
+      <c r="F86" s="44"/>
+      <c r="G86" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="H86" s="35"/>
-      <c r="I86" s="34" t="s">
+      <c r="H86" s="45"/>
+      <c r="I86" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="J86" s="34"/>
+      <c r="J86" s="32"/>
     </row>
     <row r="87" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="37" t="s">
+      <c r="A87" s="44"/>
+      <c r="B87" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="17" t="s">
+      <c r="D87" s="39"/>
+      <c r="E87" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F87" s="33" t="s">
+      <c r="F87" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="G87" s="26" t="s">
+      <c r="G87" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
     </row>
     <row r="88" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="28" t="s">
+      <c r="A88" s="44"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="17" t="s">
+      <c r="D88" s="39"/>
+      <c r="E88" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F88" s="33"/>
-      <c r="G88" s="35" t="s">
+      <c r="F88" s="44"/>
+      <c r="G88" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H88" s="72" t="s">
+      <c r="H88" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="I88" s="72"/>
-      <c r="J88" s="21" t="s">
+      <c r="I88" s="48"/>
+      <c r="J88" s="20" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="28" t="s">
+      <c r="A89" s="44"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="28"/>
-      <c r="E89" s="17" t="s">
+      <c r="D89" s="39"/>
+      <c r="E89" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="33"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="72" t="s">
+      <c r="F89" s="44"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="I89" s="72"/>
-      <c r="J89" s="21" t="s">
+      <c r="I89" s="48"/>
+      <c r="J89" s="20" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="36" t="s">
+      <c r="A90" s="44"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="26" t="s">
+      <c r="D90" s="46"/>
+      <c r="E90" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="73" t="s">
+      <c r="F90" s="44"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I90" s="73"/>
-      <c r="J90" s="21" t="s">
+      <c r="I90" s="49"/>
+      <c r="J90" s="20" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="33" t="s">
+      <c r="A91" s="44"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="G91" s="26" t="s">
+      <c r="G91" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
     </row>
     <row r="92" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="35" t="s">
+      <c r="A92" s="44"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="I92" s="26"/>
-      <c r="J92" s="18" t="s">
+      <c r="I92" s="37"/>
+      <c r="J92" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="36" t="s">
+      <c r="A93" s="44"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D93" s="36"/>
-      <c r="E93" s="20" t="s">
+      <c r="D93" s="46"/>
+      <c r="E93" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="33"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="26" t="s">
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="I93" s="26"/>
-      <c r="J93" s="18" t="s">
+      <c r="I93" s="37"/>
+      <c r="J93" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="36" t="s">
+      <c r="A94" s="44"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="26" t="s">
+      <c r="D94" s="46"/>
+      <c r="E94" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="33"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="26" t="s">
+      <c r="F94" s="44"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="I94" s="26"/>
-      <c r="J94" s="18" t="s">
+      <c r="I94" s="37"/>
+      <c r="J94" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="26" t="s">
+      <c r="A95" s="44"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="I95" s="26"/>
-      <c r="J95" s="18" t="s">
+      <c r="I95" s="37"/>
+      <c r="J95" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="36" t="s">
+      <c r="A96" s="44"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="26" t="s">
+      <c r="D96" s="46"/>
+      <c r="E96" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F96" s="33"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="26" t="s">
+      <c r="F96" s="44"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="I96" s="26"/>
-      <c r="J96" s="18" t="s">
+      <c r="I96" s="37"/>
+      <c r="J96" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="26" t="s">
+      <c r="A97" s="44"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="I97" s="26"/>
-      <c r="J97" s="18" t="s">
+      <c r="I97" s="37"/>
+      <c r="J97" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="76"/>
-      <c r="F98" s="33" t="s">
+      <c r="A98" s="44"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="G98" s="26" t="s">
+      <c r="G98" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
     </row>
     <row r="99" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="35" t="s">
+      <c r="A99" s="44"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="82"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="18" t="s">
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="22" t="s">
+      <c r="A100" s="44"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="G100" s="34" t="s">
+      <c r="G100" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
     </row>
     <row r="101" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
-      <c r="B101" s="76"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="22" t="s">
+      <c r="A101" s="44"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="82"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="82"/>
+      <c r="F101" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="G101" s="28" t="s">
+      <c r="G101" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="17" t="s">
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="33" t="s">
+      <c r="A102" s="44"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="G102" s="33"/>
-      <c r="H102" s="26" t="s">
+      <c r="G102" s="44"/>
+      <c r="H102" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
     </row>
     <row r="103" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
-      <c r="B103" s="76"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="28" t="s">
+      <c r="A103" s="44"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82"/>
+      <c r="E103" s="82"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="I103" s="28"/>
-      <c r="J103" s="17" t="s">
+      <c r="I103" s="39"/>
+      <c r="J103" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="28" t="s">
+      <c r="A104" s="44"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="I104" s="28"/>
-      <c r="J104" s="17" t="s">
+      <c r="I104" s="39"/>
+      <c r="J104" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
-      <c r="B105" s="76"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="28" t="s">
+      <c r="A105" s="44"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="82"/>
+      <c r="D105" s="82"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="I105" s="28"/>
-      <c r="J105" s="17" t="s">
+      <c r="I105" s="39"/>
+      <c r="J105" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
-      <c r="B106" s="76"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="14" t="s">
+      <c r="A106" s="44"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G106" s="34" t="s">
+      <c r="G106" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
     </row>
     <row r="107" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="33"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="75" t="s">
+      <c r="A107" s="44"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="G107" s="73"/>
-      <c r="H107" s="73"/>
-      <c r="I107" s="73"/>
-      <c r="J107" s="73"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="49"/>
     </row>
     <row r="108" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="75"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="73"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
+      <c r="F108" s="81"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="49"/>
     </row>
     <row r="109" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B109" s="37"/>
-      <c r="C109" s="34" t="s">
+      <c r="B109" s="34"/>
+      <c r="C109" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="75"/>
-      <c r="G109" s="73"/>
-      <c r="H109" s="73"/>
-      <c r="I109" s="73"/>
-      <c r="J109" s="73"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="49"/>
     </row>
     <row r="110" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="28" t="s">
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D110" s="28"/>
+      <c r="D110" s="39"/>
       <c r="E110" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F110" s="75"/>
-      <c r="G110" s="73"/>
-      <c r="H110" s="73"/>
-      <c r="I110" s="73"/>
-      <c r="J110" s="73"/>
+      <c r="F110" s="81"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="49"/>
     </row>
     <row r="111" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="28" t="s">
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="28"/>
+      <c r="D111" s="39"/>
       <c r="E111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="75"/>
-      <c r="G111" s="73"/>
-      <c r="H111" s="73"/>
-      <c r="I111" s="73"/>
-      <c r="J111" s="73"/>
+      <c r="F111" s="81"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="49"/>
     </row>
     <row r="112" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="28" t="s">
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="28"/>
+      <c r="D112" s="39"/>
       <c r="E112" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F112" s="75"/>
-      <c r="G112" s="74" t="s">
+      <c r="F112" s="81"/>
+      <c r="G112" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="H112" s="74"/>
-      <c r="I112" s="73" t="s">
+      <c r="H112" s="80"/>
+      <c r="I112" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="J112" s="73"/>
+      <c r="J112" s="49"/>
     </row>
     <row r="113" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="28" t="s">
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D113" s="28"/>
+      <c r="D113" s="39"/>
       <c r="E113" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F113" s="75"/>
-      <c r="G113" s="74" t="s">
+      <c r="F113" s="81"/>
+      <c r="G113" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="H113" s="74"/>
-      <c r="I113" s="73" t="s">
+      <c r="H113" s="80"/>
+      <c r="I113" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="J113" s="73"/>
+      <c r="J113" s="49"/>
     </row>
     <row r="114" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
+      <c r="A114" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="75" t="s">
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="G114" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="38"/>
     </row>
     <row r="115" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
-      <c r="B115" s="19" t="s">
+      <c r="A115" s="44"/>
+      <c r="B115" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="75"/>
-      <c r="G115" s="79" t="s">
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="81"/>
+      <c r="G115" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="H115" s="79"/>
-      <c r="I115" s="79"/>
-      <c r="J115" s="79"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
     </row>
     <row r="116" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
-      <c r="B116" s="19" t="s">
+      <c r="A116" s="44"/>
+      <c r="B116" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="72" t="s">
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="81"/>
+      <c r="G116" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="H116" s="73" t="s">
+      <c r="H116" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="I116" s="73"/>
-      <c r="J116" s="73"/>
+      <c r="I116" s="49"/>
+      <c r="J116" s="49"/>
     </row>
     <row r="117" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
-      <c r="B117" s="12" t="s">
+      <c r="A117" s="44"/>
+      <c r="B117" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="73" t="s">
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="81"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="I117" s="73"/>
-      <c r="J117" s="73"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="49"/>
     </row>
     <row r="118" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
-      <c r="B118" s="35" t="s">
+      <c r="A118" s="44"/>
+      <c r="B118" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D118" s="28"/>
+      <c r="D118" s="39"/>
       <c r="E118" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="75"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="73" t="s">
+      <c r="F118" s="81"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="I118" s="73"/>
-      <c r="J118" s="73"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="49"/>
     </row>
     <row r="119" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="28" t="s">
+      <c r="A119" s="44"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D119" s="28"/>
+      <c r="D119" s="39"/>
       <c r="E119" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F119" s="75"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="73" t="s">
+      <c r="F119" s="81"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="I119" s="73"/>
-      <c r="J119" s="73"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="49"/>
     </row>
     <row r="120" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
-      <c r="B120" s="35"/>
-      <c r="C120" s="28" t="s">
+      <c r="A120" s="44"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D120" s="28"/>
+      <c r="D120" s="39"/>
       <c r="E120" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F120" s="75"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="73" t="s">
+      <c r="F120" s="81"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="49"/>
     </row>
     <row r="121" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C121" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="72"/>
-      <c r="H121" s="73" t="s">
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="I121" s="73"/>
-      <c r="J121" s="73"/>
+      <c r="I121" s="49"/>
+      <c r="J121" s="49"/>
     </row>
     <row r="122" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
-      <c r="B122" s="35" t="s">
+      <c r="A122" s="34"/>
+      <c r="B122" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D122" s="28"/>
+      <c r="D122" s="39"/>
       <c r="E122" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F122" s="75"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="73" t="s">
+      <c r="F122" s="81"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="I122" s="73"/>
-      <c r="J122" s="73"/>
+      <c r="I122" s="49"/>
+      <c r="J122" s="49"/>
     </row>
     <row r="123" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="37"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="28" t="s">
+      <c r="A123" s="34"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D123" s="28"/>
+      <c r="D123" s="39"/>
       <c r="E123" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F123" s="75"/>
-      <c r="G123" s="77" t="s">
+      <c r="F123" s="81"/>
+      <c r="G123" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="H123" s="77"/>
-      <c r="I123" s="77"/>
-      <c r="J123" s="21" t="s">
+      <c r="H123" s="83"/>
+      <c r="I123" s="83"/>
+      <c r="J123" s="20" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="38" t="s">
+      <c r="A124" s="34"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="38"/>
+      <c r="D124" s="47"/>
       <c r="E124" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F124" s="75"/>
-      <c r="G124" s="78" t="s">
+      <c r="F124" s="81"/>
+      <c r="G124" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="H124" s="78"/>
-      <c r="I124" s="78"/>
-      <c r="J124" s="78"/>
+      <c r="H124" s="84"/>
+      <c r="I124" s="84"/>
+      <c r="J124" s="84"/>
     </row>
     <row r="125" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="28" t="s">
+      <c r="A125" s="34"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D125" s="28"/>
+      <c r="D125" s="39"/>
       <c r="E125" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F125" s="75"/>
-      <c r="G125" s="73" t="s">
+      <c r="F125" s="81"/>
+      <c r="G125" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="H125" s="73"/>
-      <c r="I125" s="73"/>
-      <c r="J125" s="73"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="49"/>
     </row>
     <row r="126" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="28" t="s">
+      <c r="A126" s="34"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D126" s="28"/>
+      <c r="D126" s="39"/>
       <c r="E126" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F126" s="75"/>
-      <c r="G126" s="35" t="s">
+      <c r="F126" s="81"/>
+      <c r="G126" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="H126" s="35"/>
-      <c r="I126" s="73" t="s">
+      <c r="H126" s="45"/>
+      <c r="I126" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="J126" s="73"/>
+      <c r="J126" s="49"/>
     </row>
     <row r="127" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="37" t="s">
+      <c r="A127" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B127" s="83" t="s">
+      <c r="B127" s="89" t="s">
         <v>193</v>
       </c>
-      <c r="C127" s="83"/>
-      <c r="D127" s="83"/>
-      <c r="E127" s="83"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="89"/>
+      <c r="E127" s="89"/>
     </row>
     <row r="128" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
-      <c r="B128" s="35" t="s">
+      <c r="A128" s="34"/>
+      <c r="B128" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="80" t="s">
+      <c r="C128" s="45"/>
+      <c r="D128" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="E128" s="80"/>
+      <c r="E128" s="86"/>
     </row>
     <row r="129" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
-      <c r="B129" s="83" t="s">
+      <c r="A129" s="34"/>
+      <c r="B129" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="C129" s="83"/>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="89"/>
+      <c r="E129" s="89"/>
     </row>
     <row r="130" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
-      <c r="B130" s="80" t="s">
+      <c r="A130" s="34"/>
+      <c r="B130" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="C130" s="80" t="s">
+      <c r="C130" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="D130" s="80"/>
-      <c r="E130" s="80"/>
+      <c r="D130" s="86"/>
+      <c r="E130" s="86"/>
     </row>
     <row r="131" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
-      <c r="B131" s="80"/>
-      <c r="C131" s="80" t="s">
+      <c r="A131" s="34"/>
+      <c r="B131" s="86"/>
+      <c r="C131" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="D131" s="80"/>
-      <c r="E131" s="80"/>
+      <c r="D131" s="86"/>
+      <c r="E131" s="86"/>
     </row>
     <row r="132" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="80"/>
-      <c r="C132" s="80" t="s">
+      <c r="A132" s="34"/>
+      <c r="B132" s="86"/>
+      <c r="C132" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="D132" s="80"/>
-      <c r="E132" s="80"/>
+      <c r="D132" s="86"/>
+      <c r="E132" s="86"/>
     </row>
     <row r="133" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="80" t="s">
+      <c r="A133" s="34"/>
+      <c r="B133" s="86"/>
+      <c r="C133" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="D133" s="80"/>
-      <c r="E133" s="80"/>
+      <c r="D133" s="86"/>
+      <c r="E133" s="86"/>
     </row>
     <row r="134" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
-      <c r="B134" s="80"/>
-      <c r="C134" s="80" t="s">
+      <c r="A134" s="34"/>
+      <c r="B134" s="86"/>
+      <c r="C134" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="D134" s="80"/>
-      <c r="E134" s="80"/>
+      <c r="D134" s="86"/>
+      <c r="E134" s="86"/>
     </row>
     <row r="135" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="80"/>
-      <c r="C135" s="80" t="s">
+      <c r="A135" s="34"/>
+      <c r="B135" s="86"/>
+      <c r="C135" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="D135" s="80"/>
-      <c r="E135" s="80"/>
+      <c r="D135" s="86"/>
+      <c r="E135" s="86"/>
     </row>
     <row r="136" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
-      <c r="B136" s="36" t="s">
+      <c r="A136" s="34"/>
+      <c r="B136" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="C136" s="36"/>
-      <c r="D136" s="81" t="s">
+      <c r="C136" s="46"/>
+      <c r="D136" s="87" t="s">
         <v>203</v>
       </c>
-      <c r="E136" s="81"/>
+      <c r="E136" s="87"/>
     </row>
     <row r="137" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
-      <c r="B137" s="36" t="s">
+      <c r="A137" s="34"/>
+      <c r="B137" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="C137" s="36"/>
-      <c r="D137" s="81" t="s">
+      <c r="C137" s="46"/>
+      <c r="D137" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="E137" s="81"/>
+      <c r="E137" s="87"/>
     </row>
     <row r="138" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
-      <c r="B138" s="36" t="s">
+      <c r="A138" s="34"/>
+      <c r="B138" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="C138" s="36"/>
-      <c r="D138" s="82" t="s">
+      <c r="C138" s="46"/>
+      <c r="D138" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="E138" s="82"/>
+      <c r="E138" s="88"/>
     </row>
     <row r="139" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
-      <c r="B139" s="85" t="s">
+      <c r="A139" s="34"/>
+      <c r="B139" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="C139" s="86"/>
-      <c r="D139" s="86"/>
-      <c r="E139" s="87"/>
+      <c r="C139" s="92"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="93"/>
     </row>
     <row r="140" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
-      <c r="B140" s="80" t="s">
+      <c r="A140" s="34"/>
+      <c r="B140" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="C140" s="80"/>
-      <c r="D140" s="80" t="s">
+      <c r="C140" s="86"/>
+      <c r="D140" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="E140" s="80"/>
+      <c r="E140" s="86"/>
     </row>
     <row r="141" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="37"/>
-      <c r="B141" s="35" t="s">
+      <c r="A141" s="34"/>
+      <c r="B141" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="35"/>
-      <c r="D141" s="35"/>
-      <c r="E141" s="24" t="s">
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="37"/>
-      <c r="B142" s="35" t="s">
+      <c r="A142" s="34"/>
+      <c r="B142" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="C142" s="35"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="23" t="s">
+      <c r="C142" s="45"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
-      <c r="B143" s="36" t="s">
+      <c r="A143" s="34"/>
+      <c r="B143" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="36"/>
-      <c r="D143" s="36"/>
-      <c r="E143" s="81" t="s">
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="87" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
-      <c r="B144" s="36"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="81"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="87"/>
     </row>
     <row r="145" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
-      <c r="B145" s="83" t="s">
+      <c r="A145" s="34"/>
+      <c r="B145" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="C145" s="83"/>
-      <c r="D145" s="83"/>
-      <c r="E145" s="83"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="89"/>
+      <c r="E145" s="89"/>
     </row>
     <row r="146" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="37"/>
-      <c r="B146" s="80" t="s">
+      <c r="A146" s="34"/>
+      <c r="B146" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="C146" s="80"/>
-      <c r="D146" s="80" t="s">
+      <c r="C146" s="86"/>
+      <c r="D146" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="E146" s="80"/>
+      <c r="E146" s="86"/>
     </row>
     <row r="147" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="37"/>
-      <c r="B147" s="35" t="s">
+      <c r="A147" s="34"/>
+      <c r="B147" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="C147" s="35"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="23" t="s">
+      <c r="C147" s="45"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="37"/>
-      <c r="B148" s="35" t="s">
+      <c r="A148" s="34"/>
+      <c r="B148" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="23" t="s">
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="22" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="37"/>
-      <c r="B149" s="36" t="s">
+      <c r="A149" s="34"/>
+      <c r="B149" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="80" t="s">
+      <c r="C149" s="46"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="86" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="37"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
-      <c r="E150" s="80"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="46"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="86"/>
     </row>
     <row r="151" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="37"/>
-      <c r="B151" s="83" t="s">
+      <c r="A151" s="34"/>
+      <c r="B151" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="83"/>
-      <c r="D151" s="83"/>
-      <c r="E151" s="83"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="89"/>
+      <c r="E151" s="89"/>
     </row>
     <row r="152" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="37"/>
-      <c r="B152" s="80" t="s">
+      <c r="A152" s="34"/>
+      <c r="B152" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="C152" s="80"/>
-      <c r="D152" s="80"/>
-      <c r="E152" s="80"/>
+      <c r="C152" s="86"/>
+      <c r="D152" s="86"/>
+      <c r="E152" s="86"/>
     </row>
     <row r="153" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="37"/>
-      <c r="B153" s="84" t="s">
+      <c r="A153" s="34"/>
+      <c r="B153" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="C153" s="84"/>
-      <c r="D153" s="84"/>
-      <c r="E153" s="82" t="s">
+      <c r="C153" s="90"/>
+      <c r="D153" s="90"/>
+      <c r="E153" s="88" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="37"/>
-      <c r="B154" s="84"/>
-      <c r="C154" s="84"/>
-      <c r="D154" s="84"/>
-      <c r="E154" s="82"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="90"/>
+      <c r="C154" s="90"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="88"/>
     </row>
     <row r="155" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="37"/>
-      <c r="B155" s="84" t="s">
+      <c r="A155" s="34"/>
+      <c r="B155" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="C155" s="84"/>
-      <c r="D155" s="84"/>
-      <c r="E155" s="82" t="s">
+      <c r="C155" s="90"/>
+      <c r="D155" s="90"/>
+      <c r="E155" s="88" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="37"/>
-      <c r="B156" s="84"/>
-      <c r="C156" s="84"/>
-      <c r="D156" s="84"/>
-      <c r="E156" s="82"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="90"/>
+      <c r="C156" s="90"/>
+      <c r="D156" s="90"/>
+      <c r="E156" s="88"/>
     </row>
     <row r="157" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="37"/>
-      <c r="B157" s="83" t="s">
+      <c r="A157" s="34"/>
+      <c r="B157" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="C157" s="83"/>
-      <c r="D157" s="83"/>
-      <c r="E157" s="83"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="89"/>
+      <c r="E157" s="89"/>
     </row>
     <row r="158" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="37"/>
-      <c r="B158" s="80" t="s">
+      <c r="A158" s="34"/>
+      <c r="B158" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="C158" s="80"/>
-      <c r="D158" s="80" t="s">
+      <c r="C158" s="86"/>
+      <c r="D158" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="E158" s="80"/>
+      <c r="E158" s="86"/>
     </row>
     <row r="159" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
-      <c r="B159" s="35" t="s">
+      <c r="A159" s="34"/>
+      <c r="B159" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="C159" s="35"/>
-      <c r="D159" s="80" t="s">
+      <c r="C159" s="45"/>
+      <c r="D159" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="E159" s="80"/>
+      <c r="E159" s="86"/>
     </row>
     <row r="160" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="37"/>
-      <c r="B160" s="36" t="s">
+      <c r="A160" s="34"/>
+      <c r="B160" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="C160" s="36"/>
-      <c r="D160" s="81" t="s">
+      <c r="C160" s="46"/>
+      <c r="D160" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="E160" s="81"/>
+      <c r="E160" s="87"/>
     </row>
     <row r="161" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="37"/>
-      <c r="B161" s="36"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="81"/>
-      <c r="E161" s="81"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="87"/>
+      <c r="E161" s="87"/>
     </row>
     <row r="162" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="37"/>
-      <c r="B162" s="36"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="81"/>
-      <c r="E162" s="81"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="87"/>
+      <c r="E162" s="87"/>
     </row>
     <row r="163" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="37"/>
-      <c r="B163" s="83" t="s">
+      <c r="A163" s="34"/>
+      <c r="B163" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="C163" s="83"/>
-      <c r="D163" s="83"/>
-      <c r="E163" s="83"/>
+      <c r="C163" s="89"/>
+      <c r="D163" s="89"/>
+      <c r="E163" s="89"/>
     </row>
     <row r="164" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="37"/>
-      <c r="B164" s="80" t="s">
+      <c r="A164" s="34"/>
+      <c r="B164" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="C164" s="80"/>
-      <c r="D164" s="80"/>
-      <c r="E164" s="80"/>
+      <c r="C164" s="86"/>
+      <c r="D164" s="86"/>
+      <c r="E164" s="86"/>
     </row>
     <row r="165" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="37"/>
-      <c r="B165" s="35" t="s">
+      <c r="A165" s="34"/>
+      <c r="B165" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="C165" s="35"/>
-      <c r="D165" s="80" t="s">
+      <c r="C165" s="45"/>
+      <c r="D165" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="E165" s="80"/>
+      <c r="E165" s="86"/>
     </row>
     <row r="166" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="37"/>
-      <c r="B166" s="83" t="s">
+      <c r="A166" s="34"/>
+      <c r="B166" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="C166" s="83"/>
-      <c r="D166" s="83"/>
-      <c r="E166" s="83"/>
+      <c r="C166" s="89"/>
+      <c r="D166" s="89"/>
+      <c r="E166" s="89"/>
     </row>
     <row r="167" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="37"/>
-      <c r="B167" s="26" t="s">
+      <c r="A167" s="34"/>
+      <c r="B167" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
+      <c r="C167" s="37"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="37"/>
     </row>
     <row r="168" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="37"/>
-      <c r="B168" s="35" t="s">
+      <c r="A168" s="34"/>
+      <c r="B168" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="C168" s="35"/>
-      <c r="D168" s="26" t="s">
+      <c r="C168" s="45"/>
+      <c r="D168" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="E168" s="26"/>
+      <c r="E168" s="37"/>
     </row>
     <row r="169" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="B169" s="34" t="s">
+      <c r="B169" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
     </row>
     <row r="170" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="33"/>
-      <c r="B170" s="28" t="s">
+      <c r="A170" s="44"/>
+      <c r="B170" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="C170" s="28"/>
-      <c r="D170" s="34" t="s">
+      <c r="C170" s="39"/>
+      <c r="D170" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="E170" s="34"/>
+      <c r="E170" s="32"/>
     </row>
     <row r="171" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="33"/>
-      <c r="B171" s="34" t="s">
+      <c r="A171" s="44"/>
+      <c r="B171" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
     </row>
     <row r="172" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="33"/>
-      <c r="B172" s="28" t="s">
+      <c r="A172" s="44"/>
+      <c r="B172" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="C172" s="28"/>
-      <c r="D172" s="34" t="s">
+      <c r="C172" s="39"/>
+      <c r="D172" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="E172" s="34"/>
+      <c r="E172" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
+  <mergeCells count="261">
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A33:A36"/>
     <mergeCell ref="B33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
     <mergeCell ref="B169:E169"/>
     <mergeCell ref="B171:E171"/>
     <mergeCell ref="B170:C170"/>
@@ -4699,18 +5112,6 @@
     <mergeCell ref="H104:I104"/>
     <mergeCell ref="F91:F97"/>
     <mergeCell ref="H93:I93"/>
-    <mergeCell ref="F71:G73"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="F75:G77"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:E4"/>
@@ -4733,7 +5134,30 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F70:J70"/>
-    <mergeCell ref="A65:E74"/>
+    <mergeCell ref="F71:G73"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="C96:D97"/>
     <mergeCell ref="E96:E97"/>
     <mergeCell ref="B82:D82"/>
@@ -4745,13 +5169,12 @@
     <mergeCell ref="E94:E95"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C90:D92"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:I88"/>
     <mergeCell ref="F64:F67"/>
     <mergeCell ref="H68:J68"/>
     <mergeCell ref="H69:J69"/>
@@ -4762,34 +5185,14 @@
     <mergeCell ref="H65:I65"/>
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="F81:G83"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="G92:G97"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="G88:G90"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="F75:G77"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H77:J77"/>
     <mergeCell ref="C120:D120"/>
     <mergeCell ref="C125:D125"/>
     <mergeCell ref="C126:D126"/>
@@ -4807,9 +5210,37 @@
     <mergeCell ref="B118:B120"/>
     <mergeCell ref="C118:D118"/>
     <mergeCell ref="C119:D119"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A65:E74"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="C114:E114"/>
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="F81:G83"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Linux.xlsx
+++ b/Linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[fvlnx9510]_linux_operating_system_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586252DD-B0A7-46D9-AC7D-6C7C3B768590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C1570A-EE84-453A-9CD4-F00B51AF1B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20700" windowHeight="11140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="405">
   <si>
     <t>Install</t>
   </si>
@@ -887,16 +887,10 @@
     <t>alias shortcut='cat info.log'</t>
   </si>
   <si>
-    <t xml:space="preserve">Shortcut </t>
-  </si>
-  <si>
     <t>unalias shortcut</t>
   </si>
   <si>
     <t>Variable</t>
-  </si>
-  <si>
-    <t>a=3</t>
   </si>
   <si>
     <t>Show variable value</t>
@@ -1169,6 +1163,341 @@
   </si>
   <si>
     <t>Show last 10 commands</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Task </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manager</t>
+    </r>
+  </si>
+  <si>
+    <t>!app</t>
+  </si>
+  <si>
+    <t>Show last command that started with app</t>
+  </si>
+  <si>
+    <t>Normal var</t>
+  </si>
+  <si>
+    <t>Environment var</t>
+  </si>
+  <si>
+    <t>list environment vars</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Login name</t>
+  </si>
+  <si>
+    <t>LOGNAME</t>
+  </si>
+  <si>
+    <t>HOSTNAME</t>
+  </si>
+  <si>
+    <t>Host name</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>Where to look for executable files</t>
+  </si>
+  <si>
+    <t>Set your PATH</t>
+  </si>
+  <si>
+    <t>PATH=$PATH:/home/shayan/Desktop</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Primary prompt display</t>
+  </si>
+  <si>
+    <t>All the arguments before (;) will be treated as a separate command from all the arguments after the</t>
+  </si>
+  <si>
+    <t>alias name=command</t>
+  </si>
+  <si>
+    <t>use 'command' if there is space in the command</t>
+  </si>
+  <si>
+    <t>Shortcut</t>
+  </si>
+  <si>
+    <t>Remove alias</t>
+  </si>
+  <si>
+    <t>Show all aliases</t>
+  </si>
+  <si>
+    <t>Nano editor</t>
+  </si>
+  <si>
+    <t>nano name.txt</t>
+  </si>
+  <si>
+    <t>Redirection</t>
+  </si>
+  <si>
+    <t>ls&gt;ls.txt</t>
+  </si>
+  <si>
+    <t>Redirect output from terminal to file</t>
+  </si>
+  <si>
+    <t>Redirect output from terminal and append to file</t>
+  </si>
+  <si>
+    <t>ls&gt;&gt;ls.txt</t>
+  </si>
+  <si>
+    <t>Redirect input from keyboard to file</t>
+  </si>
+  <si>
+    <t>wc&lt;ls.txt</t>
+  </si>
+  <si>
+    <t>Redirect input from file to keyboard</t>
+  </si>
+  <si>
+    <t>wc&lt;&lt;EOD
+A
+B
+C
+EOD</t>
+  </si>
+  <si>
+    <t>Redirect output to be input to another Linux instruction</t>
+  </si>
+  <si>
+    <t>cat ls.txt|cut -f 1</t>
+  </si>
+  <si>
+    <t>Command Completion</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Tab+Tab</t>
+  </si>
+  <si>
+    <t>Show all related commands</t>
+  </si>
+  <si>
+    <t>Special files</t>
+  </si>
+  <si>
+    <t>Script files, automatically executed when you log in</t>
+  </si>
+  <si>
+    <t>~/.bashrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/bashrc</t>
+  </si>
+  <si>
+    <t>~/.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/profile</t>
+  </si>
+  <si>
+    <t>all users</t>
+  </si>
+  <si>
+    <t>specific user</t>
+  </si>
+  <si>
+    <t>Modify these source files</t>
+  </si>
+  <si>
+    <t>vim .bashrc
+i
+edit
+Esc:wq
+source .bashrc</t>
+  </si>
+  <si>
+    <t>Remote user</t>
+  </si>
+  <si>
+    <t>Log in shell</t>
+  </si>
+  <si>
+    <t>Display Shell type</t>
+  </si>
+  <si>
+    <t>echo $0</t>
+  </si>
+  <si>
+    <t>echo $SHELL</t>
+  </si>
+  <si>
+    <t>ps $$</t>
+  </si>
+  <si>
+    <t>Display installed Shells</t>
+  </si>
+  <si>
+    <t>cat /etc/shells</t>
+  </si>
+  <si>
+    <t>export var</t>
+  </si>
+  <si>
+    <t>Export var to envi var</t>
+  </si>
+  <si>
+    <t>Shell scripting</t>
+  </si>
+  <si>
+    <t>#!/bin/bash</t>
+  </si>
+  <si>
+    <t>echo "salam"</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file_name</t>
+    </r>
+  </si>
+  <si>
+    <t>create new txt file</t>
+  </si>
+  <si>
+    <t># Choose shell</t>
+  </si>
+  <si>
+    <t>Writing a new shell script</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>Clear Termi</t>
+  </si>
+  <si>
+    <t>a=1    a='ali reza'    a="$first_name"</t>
+  </si>
+  <si>
+    <t>Command to variable</t>
+  </si>
+  <si>
+    <r>
+      <t>var=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>command</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>declare [option] var=val</t>
+  </si>
+  <si>
+    <t>declare shell variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -x</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>read only</t>
+  </si>
+  <si>
+    <t>exp to envi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option </t>
+  </si>
+  <si>
+    <t>Arithmetic Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(())</t>
+  </si>
+  <si>
+    <t>x=$((3+1))</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1383,240 +1712,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1652,25 +1753,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1702,240 +1848,348 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2450,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A169" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2459,2562 +2713,2757 @@
     <col min="1" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="79"/>
+      <c r="I3" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I10" s="79"/>
+      <c r="J10" s="29" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="79" t="s">
+        <v>326</v>
+      </c>
+      <c r="I11" s="79"/>
+      <c r="J11" s="29" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="35" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="51" t="s">
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="79" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="79"/>
+      <c r="J12" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>330</v>
+      </c>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="J14" s="106" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="106"/>
     </row>
     <row r="16" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="106"/>
     </row>
     <row r="17" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="I17" s="60"/>
+      <c r="J17" s="38" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="42" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="42" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="23" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
     </row>
     <row r="28" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
+      <c r="A28" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="21" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="110"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="124" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="76"/>
+      <c r="B33" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>343</v>
+      </c>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
+    </row>
+    <row r="35" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="61"/>
+      <c r="B35" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="68" t="s">
+        <v>344</v>
+      </c>
+      <c r="G35" s="127" t="s">
+        <v>346</v>
+      </c>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B36" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="119" t="s">
+        <v>347</v>
+      </c>
+      <c r="H36" s="120"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="130" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
+      <c r="B37" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" s="69"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="131"/>
+    </row>
+    <row r="38" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="H38" s="120"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="80"/>
+      <c r="B39" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="113" t="s">
+        <v>351</v>
+      </c>
+      <c r="H39" s="114"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="132" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="80"/>
+      <c r="B40" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="133"/>
+    </row>
+    <row r="41" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="80"/>
+      <c r="B41" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C41" s="78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="133"/>
+    </row>
+    <row r="42" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="B42" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="133"/>
+    </row>
+    <row r="43" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="80"/>
+      <c r="B43" s="79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="F43" s="69"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="134"/>
+    </row>
+    <row r="44" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="119" t="s">
+        <v>353</v>
+      </c>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="122" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="123"/>
+    </row>
+    <row r="46" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+    </row>
+    <row r="48" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="H48" s="50"/>
+      <c r="I48" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="33" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="B37" s="102" t="s">
-        <v>312</v>
-      </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="81" t="s">
-        <v>262</v>
-      </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81" t="s">
-        <v>263</v>
-      </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81" t="s">
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="H50" s="50"/>
+      <c r="I50" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81" t="s">
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="H52" s="50"/>
+      <c r="I52" s="104" t="s">
+        <v>368</v>
+      </c>
+      <c r="J52" s="104"/>
+    </row>
+    <row r="53" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+    </row>
+    <row r="54" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="81" t="s">
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="104"/>
+    </row>
+    <row r="55" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="48" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="81" t="s">
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+    </row>
+    <row r="56" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="81" t="s">
+      <c r="B56" s="54"/>
+      <c r="C56" s="49" t="s">
         <v>301</v>
-      </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
-        <v>302</v>
-      </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81" t="s">
-        <v>257</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
-      <c r="B53" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="81" t="s">
-        <v>269</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="81"/>
-      <c r="B55" s="94" t="s">
-        <v>266</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="81"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="49" t="s">
-        <v>270</v>
       </c>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="10"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
     </row>
     <row r="57" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="81" t="s">
-        <v>271</v>
-      </c>
-      <c r="B57" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="10"/>
+      <c r="A57" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="81"/>
-      <c r="B58" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="C58" s="80"/>
-      <c r="D58" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="H58" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="I58" s="63"/>
+      <c r="J58" s="64"/>
     </row>
     <row r="59" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="B59" s="95" t="s">
-        <v>278</v>
-      </c>
-      <c r="C59" s="95"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
+      <c r="A59" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="I59" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59" s="64"/>
     </row>
     <row r="60" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="I60" s="63"/>
+      <c r="J60" s="64"/>
     </row>
     <row r="61" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="10"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="H61" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="I61" s="63"/>
+      <c r="J61" s="64"/>
     </row>
     <row r="62" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="10"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="C62" s="50"/>
+      <c r="D62" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="10"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="C63" s="79"/>
+      <c r="D63" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="64"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="34" t="s">
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="H64" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
     </row>
     <row r="65" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="45" t="s">
+      <c r="A65" s="89"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="H65" s="39" t="s">
+      <c r="H65" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="I65" s="39"/>
+      <c r="I65" s="79"/>
       <c r="J65" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="39" t="s">
+      <c r="A66" s="89"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="I66" s="39"/>
+      <c r="I66" s="79"/>
       <c r="J66" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="39" t="s">
+      <c r="A67" s="89"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="39"/>
+      <c r="I67" s="79"/>
       <c r="J67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="50" t="s">
+      <c r="A68" s="89"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="50"/>
-      <c r="H68" s="32" t="s">
+      <c r="G68" s="91"/>
+      <c r="H68" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
     </row>
     <row r="69" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="50" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="G69" s="50"/>
-      <c r="H69" s="32" t="s">
+      <c r="G69" s="91"/>
+      <c r="H69" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
     </row>
     <row r="70" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="69" t="s">
+      <c r="A70" s="89"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="69"/>
-      <c r="H70" s="69"/>
-      <c r="I70" s="69"/>
-      <c r="J70" s="69"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
     </row>
     <row r="71" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="44" t="s">
+      <c r="A71" s="89"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="44"/>
-      <c r="H71" s="37" t="s">
+      <c r="G71" s="80"/>
+      <c r="H71" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
     </row>
     <row r="72" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="39" t="s">
+      <c r="A72" s="89"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="89"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="I72" s="39"/>
-      <c r="J72" s="16" t="s">
+      <c r="I72" s="79"/>
+      <c r="J72" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="39" t="s">
+      <c r="A73" s="89"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="I73" s="39"/>
-      <c r="J73" s="16" t="s">
+      <c r="I73" s="79"/>
+      <c r="J73" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="50" t="s">
+      <c r="A74" s="89"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="G74" s="50"/>
-      <c r="H74" s="37" t="s">
+      <c r="G74" s="91"/>
+      <c r="H74" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
     </row>
     <row r="75" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="69" t="s">
+      <c r="A75" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="69"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="34" t="s">
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="34"/>
-      <c r="H75" s="32" t="s">
+      <c r="G75" s="61"/>
+      <c r="H75" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
     </row>
     <row r="76" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="12" t="s">
+      <c r="B76" s="61"/>
+      <c r="C76" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="39" t="s">
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="I76" s="39"/>
-      <c r="J76" s="16" t="s">
+      <c r="I76" s="79"/>
+      <c r="J76" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="18" t="s">
+      <c r="B77" s="80"/>
+      <c r="C77" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="32" t="s">
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
     </row>
     <row r="78" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="18" t="s">
+      <c r="A78" s="80"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="37" t="s">
+      <c r="D78" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E78" s="37"/>
-      <c r="F78" s="34" t="s">
+      <c r="E78" s="49"/>
+      <c r="F78" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="32" t="s">
+      <c r="G78" s="61"/>
+      <c r="H78" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
+      <c r="I78" s="78"/>
+      <c r="J78" s="78"/>
     </row>
     <row r="79" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="39" t="s">
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="I79" s="39"/>
+      <c r="I79" s="79"/>
       <c r="J79" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
-      <c r="B80" s="39" t="s">
+      <c r="A80" s="80"/>
+      <c r="B80" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="16" t="s">
+      <c r="C80" s="79"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="39" t="s">
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="I80" s="39"/>
+      <c r="I80" s="79"/>
       <c r="J80" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="39" t="s">
+      <c r="A81" s="80"/>
+      <c r="B81" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="16" t="s">
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="96" t="s">
+      <c r="F81" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="G81" s="97"/>
-      <c r="H81" s="32" t="s">
+      <c r="G81" s="82"/>
+      <c r="H81" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
     </row>
     <row r="82" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
-      <c r="B82" s="39" t="s">
+      <c r="A82" s="80"/>
+      <c r="B82" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="16" t="s">
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F82" s="98"/>
-      <c r="G82" s="99"/>
-      <c r="H82" s="39" t="s">
+      <c r="F82" s="83"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="I82" s="39"/>
+      <c r="I82" s="79"/>
       <c r="J82" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="39" t="s">
+      <c r="A83" s="80"/>
+      <c r="B83" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="16" t="s">
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="100"/>
-      <c r="G83" s="101"/>
-      <c r="H83" s="39" t="s">
+      <c r="F83" s="85"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="I83" s="39"/>
+      <c r="I83" s="79"/>
       <c r="J83" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="39" t="s">
+      <c r="A84" s="80"/>
+      <c r="B84" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="16" t="s">
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="50" t="s">
+      <c r="F84" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="G84" s="50"/>
-      <c r="H84" s="32" t="s">
+      <c r="G84" s="91"/>
+      <c r="H84" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="I84" s="32"/>
-      <c r="J84" s="32"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="78"/>
     </row>
     <row r="85" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
-      <c r="B85" s="39" t="s">
+      <c r="A85" s="80"/>
+      <c r="B85" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="16" t="s">
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="44" t="s">
+      <c r="F85" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="G85" s="46" t="s">
+      <c r="G85" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H85" s="46"/>
-      <c r="I85" s="20" t="s">
+      <c r="H85" s="60"/>
+      <c r="I85" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J85" s="16" t="s">
+      <c r="J85" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="45" t="s">
+      <c r="A86" s="80"/>
+      <c r="B86" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="16" t="s">
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F86" s="44"/>
-      <c r="G86" s="45" t="s">
+      <c r="F86" s="80"/>
+      <c r="G86" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="H86" s="45"/>
-      <c r="I86" s="32" t="s">
+      <c r="H86" s="50"/>
+      <c r="I86" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="J86" s="32"/>
+      <c r="J86" s="78"/>
     </row>
     <row r="87" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
-      <c r="B87" s="34" t="s">
+      <c r="A87" s="80"/>
+      <c r="B87" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="16" t="s">
+      <c r="D87" s="79"/>
+      <c r="E87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="G87" s="37" t="s">
+      <c r="G87" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
     </row>
     <row r="88" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="39" t="s">
+      <c r="A88" s="80"/>
+      <c r="B88" s="61"/>
+      <c r="C88" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="39"/>
-      <c r="E88" s="16" t="s">
+      <c r="D88" s="79"/>
+      <c r="E88" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F88" s="44"/>
-      <c r="G88" s="45" t="s">
+      <c r="F88" s="80"/>
+      <c r="G88" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="H88" s="48" t="s">
+      <c r="H88" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="I88" s="48"/>
-      <c r="J88" s="20" t="s">
+      <c r="I88" s="53"/>
+      <c r="J88" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="39" t="s">
+      <c r="A89" s="80"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="39"/>
-      <c r="E89" s="16" t="s">
+      <c r="D89" s="79"/>
+      <c r="E89" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="44"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="48" t="s">
+      <c r="F89" s="80"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="I89" s="48"/>
-      <c r="J89" s="20" t="s">
+      <c r="I89" s="53"/>
+      <c r="J89" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="46" t="s">
+      <c r="A90" s="80"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="46"/>
-      <c r="E90" s="37" t="s">
+      <c r="D90" s="60"/>
+      <c r="E90" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F90" s="44"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="49" t="s">
+      <c r="F90" s="80"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="I90" s="49"/>
-      <c r="J90" s="20" t="s">
+      <c r="I90" s="87"/>
+      <c r="J90" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="44" t="s">
+      <c r="A91" s="80"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="G91" s="37" t="s">
+      <c r="G91" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
     </row>
     <row r="92" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="45" t="s">
+      <c r="A92" s="80"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="H92" s="37" t="s">
+      <c r="H92" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="I92" s="37"/>
-      <c r="J92" s="17" t="s">
+      <c r="I92" s="49"/>
+      <c r="J92" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="46" t="s">
+      <c r="A93" s="80"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D93" s="46"/>
-      <c r="E93" s="19" t="s">
+      <c r="D93" s="60"/>
+      <c r="E93" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="37" t="s">
+      <c r="F93" s="80"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="I93" s="37"/>
-      <c r="J93" s="17" t="s">
+      <c r="I93" s="49"/>
+      <c r="J93" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="46" t="s">
+      <c r="A94" s="80"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="46"/>
-      <c r="E94" s="37" t="s">
+      <c r="D94" s="60"/>
+      <c r="E94" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F94" s="44"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="37" t="s">
+      <c r="F94" s="80"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="I94" s="37"/>
-      <c r="J94" s="17" t="s">
+      <c r="I94" s="49"/>
+      <c r="J94" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="46"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="37" t="s">
+      <c r="A95" s="80"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="I95" s="37"/>
-      <c r="J95" s="17" t="s">
+      <c r="I95" s="49"/>
+      <c r="J95" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="46" t="s">
+      <c r="A96" s="80"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="46"/>
-      <c r="E96" s="37" t="s">
+      <c r="D96" s="60"/>
+      <c r="E96" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="37" t="s">
+      <c r="F96" s="80"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="I96" s="37"/>
-      <c r="J96" s="17" t="s">
+      <c r="I96" s="49"/>
+      <c r="J96" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="37" t="s">
+      <c r="A97" s="80"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="I97" s="37"/>
-      <c r="J97" s="17" t="s">
+      <c r="I97" s="49"/>
+      <c r="J97" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="44" t="s">
+      <c r="A98" s="80"/>
+      <c r="B98" s="94"/>
+      <c r="C98" s="94"/>
+      <c r="D98" s="94"/>
+      <c r="E98" s="94"/>
+      <c r="F98" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="G98" s="37" t="s">
+      <c r="G98" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="49"/>
     </row>
     <row r="99" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
-      <c r="B99" s="82"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="45" t="s">
+      <c r="A99" s="80"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="94"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="17" t="s">
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="21" t="s">
+      <c r="A100" s="80"/>
+      <c r="B100" s="94"/>
+      <c r="C100" s="94"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="94"/>
+      <c r="F100" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G100" s="32" t="s">
+      <c r="G100" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="H100" s="32"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="32"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
     </row>
     <row r="101" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
-      <c r="B101" s="82"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="82"/>
-      <c r="F101" s="21" t="s">
+      <c r="A101" s="80"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="94"/>
+      <c r="F101" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G101" s="39" t="s">
+      <c r="G101" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="16" t="s">
+      <c r="H101" s="79"/>
+      <c r="I101" s="79"/>
+      <c r="J101" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="44" t="s">
+      <c r="A102" s="80"/>
+      <c r="B102" s="94"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="G102" s="44"/>
-      <c r="H102" s="37" t="s">
+      <c r="G102" s="80"/>
+      <c r="H102" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
+      <c r="I102" s="49"/>
+      <c r="J102" s="49"/>
     </row>
     <row r="103" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
-      <c r="B103" s="82"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="82"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="39" t="s">
+      <c r="A103" s="80"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="H103" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="I103" s="39"/>
-      <c r="J103" s="16" t="s">
+      <c r="I103" s="79"/>
+      <c r="J103" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="44"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="39" t="s">
+      <c r="A104" s="80"/>
+      <c r="B104" s="94"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="H104" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="I104" s="39"/>
-      <c r="J104" s="16" t="s">
+      <c r="I104" s="79"/>
+      <c r="J104" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="39" t="s">
+      <c r="A105" s="80"/>
+      <c r="B105" s="94"/>
+      <c r="C105" s="94"/>
+      <c r="D105" s="94"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="H105" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="I105" s="39"/>
-      <c r="J105" s="16" t="s">
+      <c r="I105" s="79"/>
+      <c r="J105" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="13" t="s">
+      <c r="A106" s="80"/>
+      <c r="B106" s="94"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="G106" s="32" t="s">
+      <c r="G106" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="32"/>
+      <c r="H106" s="78"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="78"/>
     </row>
     <row r="107" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
-      <c r="B107" s="82"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="81" t="s">
+      <c r="A107" s="80"/>
+      <c r="B107" s="94"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="94"/>
+      <c r="F107" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="49"/>
-      <c r="J107" s="49"/>
+      <c r="G107" s="87"/>
+      <c r="H107" s="87"/>
+      <c r="I107" s="87"/>
+      <c r="J107" s="87"/>
     </row>
     <row r="108" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="49"/>
-      <c r="J108" s="49"/>
+      <c r="A108" s="80"/>
+      <c r="B108" s="94"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="87"/>
+      <c r="H108" s="87"/>
+      <c r="I108" s="87"/>
+      <c r="J108" s="87"/>
     </row>
     <row r="109" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
+      <c r="A109" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B109" s="34"/>
-      <c r="C109" s="32" t="s">
+      <c r="B109" s="61"/>
+      <c r="C109" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="49"/>
-      <c r="J109" s="49"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="87"/>
+      <c r="H109" s="87"/>
+      <c r="I109" s="87"/>
+      <c r="J109" s="87"/>
     </row>
     <row r="110" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="39" t="s">
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D110" s="39"/>
+      <c r="D110" s="79"/>
       <c r="E110" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F110" s="81"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="49"/>
-      <c r="I110" s="49"/>
-      <c r="J110" s="49"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="87"/>
+      <c r="H110" s="87"/>
+      <c r="I110" s="87"/>
+      <c r="J110" s="87"/>
     </row>
     <row r="111" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="39" t="s">
+      <c r="A111" s="61"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D111" s="39"/>
+      <c r="D111" s="79"/>
       <c r="E111" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="81"/>
-      <c r="G111" s="49"/>
-      <c r="H111" s="49"/>
-      <c r="I111" s="49"/>
-      <c r="J111" s="49"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="87"/>
+      <c r="H111" s="87"/>
+      <c r="I111" s="87"/>
+      <c r="J111" s="87"/>
     </row>
     <row r="112" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="39" t="s">
+      <c r="A112" s="61"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="39"/>
+      <c r="D112" s="79"/>
       <c r="E112" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F112" s="81"/>
-      <c r="G112" s="80" t="s">
+      <c r="F112" s="54"/>
+      <c r="G112" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="H112" s="80"/>
-      <c r="I112" s="49" t="s">
+      <c r="H112" s="93"/>
+      <c r="I112" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="J112" s="49"/>
+      <c r="J112" s="87"/>
     </row>
     <row r="113" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="39" t="s">
+      <c r="A113" s="61"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="D113" s="39"/>
+      <c r="D113" s="79"/>
       <c r="E113" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F113" s="81"/>
-      <c r="G113" s="80" t="s">
+      <c r="F113" s="54"/>
+      <c r="G113" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="H113" s="80"/>
-      <c r="I113" s="49" t="s">
+      <c r="H113" s="93"/>
+      <c r="I113" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="J113" s="49"/>
+      <c r="J113" s="87"/>
     </row>
     <row r="114" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="44" t="s">
+      <c r="A114" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="37" t="s">
+      <c r="C114" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="81" t="s">
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="G114" s="38" t="s">
+      <c r="G114" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
     </row>
     <row r="115" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44"/>
-      <c r="B115" s="18" t="s">
+      <c r="A115" s="80"/>
+      <c r="B115" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C115" s="37" t="s">
+      <c r="C115" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="81"/>
-      <c r="G115" s="85" t="s">
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
+      <c r="H115" s="97"/>
+      <c r="I115" s="97"/>
+      <c r="J115" s="97"/>
     </row>
     <row r="116" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="44"/>
-      <c r="B116" s="18" t="s">
+      <c r="A116" s="80"/>
+      <c r="B116" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="37" t="s">
+      <c r="C116" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="81"/>
-      <c r="G116" s="48" t="s">
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="H116" s="49" t="s">
+      <c r="H116" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="I116" s="49"/>
-      <c r="J116" s="49"/>
+      <c r="I116" s="87"/>
+      <c r="J116" s="87"/>
     </row>
     <row r="117" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
-      <c r="B117" s="11" t="s">
+      <c r="A117" s="80"/>
+      <c r="B117" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="37" t="s">
+      <c r="C117" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="81"/>
-      <c r="G117" s="48"/>
-      <c r="H117" s="49" t="s">
+      <c r="D117" s="49"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="53"/>
+      <c r="H117" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
+      <c r="I117" s="87"/>
+      <c r="J117" s="87"/>
     </row>
     <row r="118" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="44"/>
-      <c r="B118" s="45" t="s">
+      <c r="A118" s="80"/>
+      <c r="B118" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="39" t="s">
+      <c r="C118" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D118" s="39"/>
+      <c r="D118" s="79"/>
       <c r="E118" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="81"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="49" t="s">
+      <c r="F118" s="54"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="I118" s="49"/>
-      <c r="J118" s="49"/>
+      <c r="I118" s="87"/>
+      <c r="J118" s="87"/>
     </row>
     <row r="119" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="39" t="s">
+      <c r="A119" s="80"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D119" s="39"/>
+      <c r="D119" s="79"/>
       <c r="E119" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F119" s="81"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="49" t="s">
+      <c r="F119" s="54"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="I119" s="49"/>
-      <c r="J119" s="49"/>
+      <c r="I119" s="87"/>
+      <c r="J119" s="87"/>
     </row>
     <row r="120" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="44"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="39" t="s">
+      <c r="A120" s="80"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="D120" s="39"/>
+      <c r="D120" s="79"/>
       <c r="E120" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F120" s="81"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="49" t="s">
+      <c r="F120" s="54"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="I120" s="49"/>
-      <c r="J120" s="49"/>
+      <c r="I120" s="87"/>
+      <c r="J120" s="87"/>
     </row>
     <row r="121" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
+      <c r="A121" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C121" s="37" t="s">
+      <c r="C121" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="81"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="49" t="s">
+      <c r="D121" s="49"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="54"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="I121" s="49"/>
-      <c r="J121" s="49"/>
+      <c r="I121" s="87"/>
+      <c r="J121" s="87"/>
     </row>
     <row r="122" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="34"/>
-      <c r="B122" s="45" t="s">
+      <c r="A122" s="61"/>
+      <c r="B122" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="39" t="s">
+      <c r="C122" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D122" s="39"/>
+      <c r="D122" s="79"/>
       <c r="E122" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F122" s="81"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="49" t="s">
+      <c r="F122" s="54"/>
+      <c r="G122" s="53"/>
+      <c r="H122" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="I122" s="49"/>
-      <c r="J122" s="49"/>
+      <c r="I122" s="87"/>
+      <c r="J122" s="87"/>
     </row>
     <row r="123" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="34"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="39" t="s">
+      <c r="A123" s="61"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D123" s="39"/>
+      <c r="D123" s="79"/>
       <c r="E123" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F123" s="81"/>
-      <c r="G123" s="83" t="s">
+      <c r="F123" s="54"/>
+      <c r="G123" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-      <c r="J123" s="20" t="s">
+      <c r="H123" s="95"/>
+      <c r="I123" s="95"/>
+      <c r="J123" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="47" t="s">
+      <c r="A124" s="61"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="D124" s="47"/>
+      <c r="D124" s="90"/>
       <c r="E124" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F124" s="81"/>
-      <c r="G124" s="84" t="s">
+      <c r="F124" s="54"/>
+      <c r="G124" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="H124" s="84"/>
-      <c r="I124" s="84"/>
-      <c r="J124" s="84"/>
+      <c r="H124" s="96"/>
+      <c r="I124" s="96"/>
+      <c r="J124" s="96"/>
     </row>
     <row r="125" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="34"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="39" t="s">
+      <c r="A125" s="61"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="D125" s="39"/>
+      <c r="D125" s="79"/>
       <c r="E125" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F125" s="81"/>
-      <c r="G125" s="49" t="s">
+      <c r="F125" s="54"/>
+      <c r="G125" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49"/>
-      <c r="J125" s="49"/>
+      <c r="H125" s="87"/>
+      <c r="I125" s="87"/>
+      <c r="J125" s="87"/>
     </row>
     <row r="126" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="34"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="39" t="s">
+      <c r="A126" s="61"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D126" s="39"/>
+      <c r="D126" s="79"/>
       <c r="E126" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F126" s="81"/>
-      <c r="G126" s="45" t="s">
+      <c r="F126" s="54"/>
+      <c r="G126" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="H126" s="45"/>
-      <c r="I126" s="49" t="s">
+      <c r="H126" s="50"/>
+      <c r="I126" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="J126" s="49"/>
+      <c r="J126" s="87"/>
     </row>
     <row r="127" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="B127" s="89" t="s">
+      <c r="B127" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="C127" s="89"/>
-      <c r="D127" s="89"/>
-      <c r="E127" s="89"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="98"/>
+      <c r="E127" s="98"/>
     </row>
     <row r="128" spans="1:10" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
-      <c r="B128" s="45" t="s">
+      <c r="A128" s="61"/>
+      <c r="B128" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="C128" s="45"/>
-      <c r="D128" s="86" t="s">
+      <c r="C128" s="50"/>
+      <c r="D128" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="E128" s="86"/>
+      <c r="E128" s="51"/>
     </row>
     <row r="129" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
-      <c r="B129" s="89" t="s">
+      <c r="A129" s="61"/>
+      <c r="B129" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="C129" s="89"/>
-      <c r="D129" s="89"/>
-      <c r="E129" s="89"/>
+      <c r="C129" s="98"/>
+      <c r="D129" s="98"/>
+      <c r="E129" s="98"/>
     </row>
     <row r="130" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
-      <c r="B130" s="86" t="s">
+      <c r="A130" s="61"/>
+      <c r="B130" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C130" s="86" t="s">
+      <c r="C130" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="D130" s="86"/>
-      <c r="E130" s="86"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="51"/>
     </row>
     <row r="131" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
-      <c r="B131" s="86"/>
-      <c r="C131" s="86" t="s">
+      <c r="A131" s="61"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="D131" s="86"/>
-      <c r="E131" s="86"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="51"/>
     </row>
     <row r="132" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="34"/>
-      <c r="B132" s="86"/>
-      <c r="C132" s="86" t="s">
+      <c r="A132" s="61"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="D132" s="86"/>
-      <c r="E132" s="86"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
     </row>
     <row r="133" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="34"/>
-      <c r="B133" s="86"/>
-      <c r="C133" s="86" t="s">
+      <c r="A133" s="61"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="D133" s="86"/>
-      <c r="E133" s="86"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="51"/>
     </row>
     <row r="134" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="34"/>
-      <c r="B134" s="86"/>
-      <c r="C134" s="86" t="s">
+      <c r="A134" s="61"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="D134" s="86"/>
-      <c r="E134" s="86"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
     </row>
     <row r="135" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="34"/>
-      <c r="B135" s="86"/>
-      <c r="C135" s="86" t="s">
+      <c r="A135" s="61"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="D135" s="86"/>
-      <c r="E135" s="86"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
     </row>
     <row r="136" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
-      <c r="B136" s="46" t="s">
+      <c r="A136" s="61"/>
+      <c r="B136" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="C136" s="46"/>
-      <c r="D136" s="87" t="s">
+      <c r="C136" s="60"/>
+      <c r="D136" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="E136" s="87"/>
+      <c r="E136" s="92"/>
     </row>
     <row r="137" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="34"/>
-      <c r="B137" s="46" t="s">
+      <c r="A137" s="61"/>
+      <c r="B137" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="C137" s="46"/>
-      <c r="D137" s="87" t="s">
+      <c r="C137" s="60"/>
+      <c r="D137" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="E137" s="87"/>
+      <c r="E137" s="92"/>
     </row>
     <row r="138" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="34"/>
-      <c r="B138" s="46" t="s">
+      <c r="A138" s="61"/>
+      <c r="B138" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="C138" s="46"/>
-      <c r="D138" s="88" t="s">
+      <c r="C138" s="60"/>
+      <c r="D138" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="E138" s="88"/>
+      <c r="E138" s="99"/>
     </row>
     <row r="139" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="34"/>
-      <c r="B139" s="91" t="s">
+      <c r="A139" s="61"/>
+      <c r="B139" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="C139" s="92"/>
-      <c r="D139" s="92"/>
-      <c r="E139" s="93"/>
+      <c r="C139" s="101"/>
+      <c r="D139" s="101"/>
+      <c r="E139" s="102"/>
     </row>
     <row r="140" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
-      <c r="B140" s="86" t="s">
+      <c r="A140" s="61"/>
+      <c r="B140" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C140" s="86"/>
-      <c r="D140" s="86" t="s">
+      <c r="C140" s="51"/>
+      <c r="D140" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="E140" s="86"/>
+      <c r="E140" s="51"/>
     </row>
     <row r="141" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="34"/>
-      <c r="B141" s="45" t="s">
+      <c r="A141" s="61"/>
+      <c r="B141" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="45"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="23" t="s">
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="15" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="34"/>
-      <c r="B142" s="45" t="s">
+      <c r="A142" s="61"/>
+      <c r="B142" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C142" s="45"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="22" t="s">
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="14" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="34"/>
-      <c r="B143" s="46" t="s">
+      <c r="A143" s="61"/>
+      <c r="B143" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
-      <c r="E143" s="87" t="s">
+      <c r="C143" s="60"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="92" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="34"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="87"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="92"/>
     </row>
     <row r="145" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="34"/>
-      <c r="B145" s="89" t="s">
+      <c r="A145" s="61"/>
+      <c r="B145" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="C145" s="89"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="89"/>
+      <c r="C145" s="98"/>
+      <c r="D145" s="98"/>
+      <c r="E145" s="98"/>
     </row>
     <row r="146" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="34"/>
-      <c r="B146" s="86" t="s">
+      <c r="A146" s="61"/>
+      <c r="B146" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C146" s="86"/>
-      <c r="D146" s="86" t="s">
+      <c r="C146" s="51"/>
+      <c r="D146" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="E146" s="86"/>
+      <c r="E146" s="51"/>
     </row>
     <row r="147" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="34"/>
-      <c r="B147" s="45" t="s">
+      <c r="A147" s="61"/>
+      <c r="B147" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="C147" s="45"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="22" t="s">
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="14" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="34"/>
-      <c r="B148" s="45" t="s">
+      <c r="A148" s="61"/>
+      <c r="B148" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="22" t="s">
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="14" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="34"/>
-      <c r="B149" s="46" t="s">
+      <c r="A149" s="61"/>
+      <c r="B149" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C149" s="46"/>
-      <c r="D149" s="46"/>
-      <c r="E149" s="86" t="s">
+      <c r="C149" s="60"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="51" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="34"/>
-      <c r="B150" s="46"/>
-      <c r="C150" s="46"/>
-      <c r="D150" s="46"/>
-      <c r="E150" s="86"/>
+      <c r="A150" s="61"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="51"/>
     </row>
     <row r="151" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="34"/>
-      <c r="B151" s="89" t="s">
+      <c r="A151" s="61"/>
+      <c r="B151" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="89"/>
-      <c r="D151" s="89"/>
-      <c r="E151" s="89"/>
+      <c r="C151" s="98"/>
+      <c r="D151" s="98"/>
+      <c r="E151" s="98"/>
     </row>
     <row r="152" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
-      <c r="B152" s="86" t="s">
+      <c r="A152" s="61"/>
+      <c r="B152" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C152" s="86"/>
-      <c r="D152" s="86"/>
-      <c r="E152" s="86"/>
+      <c r="C152" s="51"/>
+      <c r="D152" s="51"/>
+      <c r="E152" s="51"/>
     </row>
     <row r="153" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
-      <c r="B153" s="90" t="s">
+      <c r="A153" s="61"/>
+      <c r="B153" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="C153" s="90"/>
-      <c r="D153" s="90"/>
-      <c r="E153" s="88" t="s">
+      <c r="C153" s="103"/>
+      <c r="D153" s="103"/>
+      <c r="E153" s="99" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
-      <c r="B154" s="90"/>
-      <c r="C154" s="90"/>
-      <c r="D154" s="90"/>
-      <c r="E154" s="88"/>
+      <c r="A154" s="61"/>
+      <c r="B154" s="103"/>
+      <c r="C154" s="103"/>
+      <c r="D154" s="103"/>
+      <c r="E154" s="99"/>
     </row>
     <row r="155" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
-      <c r="B155" s="90" t="s">
+      <c r="A155" s="61"/>
+      <c r="B155" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="C155" s="90"/>
-      <c r="D155" s="90"/>
-      <c r="E155" s="88" t="s">
+      <c r="C155" s="103"/>
+      <c r="D155" s="103"/>
+      <c r="E155" s="99" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
-      <c r="B156" s="90"/>
-      <c r="C156" s="90"/>
-      <c r="D156" s="90"/>
-      <c r="E156" s="88"/>
+      <c r="A156" s="61"/>
+      <c r="B156" s="103"/>
+      <c r="C156" s="103"/>
+      <c r="D156" s="103"/>
+      <c r="E156" s="99"/>
     </row>
     <row r="157" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="34"/>
-      <c r="B157" s="89" t="s">
+      <c r="A157" s="61"/>
+      <c r="B157" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="C157" s="89"/>
-      <c r="D157" s="89"/>
-      <c r="E157" s="89"/>
+      <c r="C157" s="98"/>
+      <c r="D157" s="98"/>
+      <c r="E157" s="98"/>
     </row>
     <row r="158" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="34"/>
-      <c r="B158" s="86" t="s">
+      <c r="A158" s="61"/>
+      <c r="B158" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C158" s="86"/>
-      <c r="D158" s="86" t="s">
+      <c r="C158" s="51"/>
+      <c r="D158" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="E158" s="86"/>
+      <c r="E158" s="51"/>
     </row>
     <row r="159" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="34"/>
-      <c r="B159" s="45" t="s">
+      <c r="A159" s="61"/>
+      <c r="B159" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="C159" s="45"/>
-      <c r="D159" s="86" t="s">
+      <c r="C159" s="50"/>
+      <c r="D159" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E159" s="86"/>
+      <c r="E159" s="51"/>
     </row>
     <row r="160" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="34"/>
-      <c r="B160" s="46" t="s">
+      <c r="A160" s="61"/>
+      <c r="B160" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="C160" s="46"/>
-      <c r="D160" s="87" t="s">
+      <c r="C160" s="60"/>
+      <c r="D160" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="E160" s="87"/>
+      <c r="E160" s="92"/>
     </row>
     <row r="161" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
-      <c r="B161" s="46"/>
-      <c r="C161" s="46"/>
-      <c r="D161" s="87"/>
-      <c r="E161" s="87"/>
+      <c r="A161" s="61"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="92"/>
+      <c r="E161" s="92"/>
     </row>
     <row r="162" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="34"/>
-      <c r="B162" s="46"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="87"/>
-      <c r="E162" s="87"/>
+      <c r="A162" s="61"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="92"/>
+      <c r="E162" s="92"/>
     </row>
     <row r="163" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
-      <c r="B163" s="89" t="s">
+      <c r="A163" s="61"/>
+      <c r="B163" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="C163" s="89"/>
-      <c r="D163" s="89"/>
-      <c r="E163" s="89"/>
+      <c r="C163" s="98"/>
+      <c r="D163" s="98"/>
+      <c r="E163" s="98"/>
     </row>
     <row r="164" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="34"/>
-      <c r="B164" s="86" t="s">
+      <c r="A164" s="61"/>
+      <c r="B164" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C164" s="86"/>
-      <c r="D164" s="86"/>
-      <c r="E164" s="86"/>
+      <c r="C164" s="51"/>
+      <c r="D164" s="51"/>
+      <c r="E164" s="51"/>
     </row>
     <row r="165" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
-      <c r="B165" s="45" t="s">
+      <c r="A165" s="61"/>
+      <c r="B165" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="C165" s="45"/>
-      <c r="D165" s="86" t="s">
+      <c r="C165" s="50"/>
+      <c r="D165" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="E165" s="86"/>
+      <c r="E165" s="51"/>
     </row>
     <row r="166" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="34"/>
-      <c r="B166" s="89" t="s">
+      <c r="A166" s="61"/>
+      <c r="B166" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="C166" s="89"/>
-      <c r="D166" s="89"/>
-      <c r="E166" s="89"/>
+      <c r="C166" s="98"/>
+      <c r="D166" s="98"/>
+      <c r="E166" s="98"/>
     </row>
     <row r="167" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
-      <c r="B167" s="37" t="s">
+      <c r="A167" s="61"/>
+      <c r="B167" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="C167" s="37"/>
-      <c r="D167" s="37"/>
-      <c r="E167" s="37"/>
+      <c r="C167" s="49"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="49"/>
     </row>
     <row r="168" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="34"/>
-      <c r="B168" s="45" t="s">
+      <c r="A168" s="61"/>
+      <c r="B168" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="C168" s="45"/>
-      <c r="D168" s="37" t="s">
+      <c r="C168" s="50"/>
+      <c r="D168" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="E168" s="37"/>
+      <c r="E168" s="49"/>
     </row>
     <row r="169" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="44" t="s">
+      <c r="A169" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B169" s="32" t="s">
+      <c r="B169" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32"/>
+      <c r="C169" s="78"/>
+      <c r="D169" s="78"/>
+      <c r="E169" s="78"/>
     </row>
     <row r="170" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
-      <c r="B170" s="39" t="s">
+      <c r="A170" s="80"/>
+      <c r="B170" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="C170" s="39"/>
-      <c r="D170" s="32" t="s">
+      <c r="C170" s="79"/>
+      <c r="D170" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="E170" s="32"/>
+      <c r="E170" s="78"/>
     </row>
     <row r="171" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="44"/>
-      <c r="B171" s="32" t="s">
+      <c r="A171" s="80"/>
+      <c r="B171" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="32"/>
+      <c r="C171" s="78"/>
+      <c r="D171" s="78"/>
+      <c r="E171" s="78"/>
     </row>
     <row r="172" spans="1:5" ht="10.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
-      <c r="B172" s="39" t="s">
+      <c r="A172" s="80"/>
+      <c r="B172" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="C172" s="39"/>
-      <c r="D172" s="32" t="s">
+      <c r="C172" s="79"/>
+      <c r="D172" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="E172" s="32"/>
+      <c r="E172" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="261">
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A48:B48"/>
+  <mergeCells count="312">
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J39:J43"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="B169:E169"/>
     <mergeCell ref="B171:E171"/>
     <mergeCell ref="B170:C170"/>
     <mergeCell ref="D170:E170"/>
+    <mergeCell ref="B149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="B160:C162"/>
+    <mergeCell ref="D160:E162"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="B153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="B155:D156"/>
+    <mergeCell ref="E155:E156"/>
     <mergeCell ref="D172:E172"/>
     <mergeCell ref="B172:C172"/>
     <mergeCell ref="A169:A172"/>
@@ -5039,19 +5488,6 @@
     <mergeCell ref="B146:C146"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="B160:C162"/>
-    <mergeCell ref="D160:E162"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="B155:D156"/>
-    <mergeCell ref="E155:E156"/>
     <mergeCell ref="B152:E152"/>
     <mergeCell ref="B157:E157"/>
     <mergeCell ref="B130:B135"/>
@@ -5071,8 +5507,6 @@
     <mergeCell ref="C135:E135"/>
     <mergeCell ref="D136:E136"/>
     <mergeCell ref="B136:C136"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
     <mergeCell ref="F114:F126"/>
     <mergeCell ref="G123:I123"/>
     <mergeCell ref="G116:G122"/>
@@ -5088,10 +5522,6 @@
     <mergeCell ref="H120:J120"/>
     <mergeCell ref="H121:J121"/>
     <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="G106:J106"/>
-    <mergeCell ref="B85:D85"/>
     <mergeCell ref="G112:H112"/>
     <mergeCell ref="G113:H113"/>
     <mergeCell ref="I112:J112"/>
@@ -5112,17 +5542,24 @@
     <mergeCell ref="H104:I104"/>
     <mergeCell ref="F91:F97"/>
     <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F87:F90"/>
-    <mergeCell ref="F78:G80"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:G73"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="I52:J56"/>
+    <mergeCell ref="G52:H56"/>
+    <mergeCell ref="F47:F56"/>
+    <mergeCell ref="G47:J47"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:B7"/>
@@ -5133,45 +5570,50 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:G73"/>
-    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A28:E29"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A65:E74"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="C94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C90:D92"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A77:B78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="C96:D97"/>
-    <mergeCell ref="E96:E97"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="C94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C90:D92"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:I99"/>
     <mergeCell ref="G87:J87"/>
     <mergeCell ref="G88:G90"/>
     <mergeCell ref="H88:I88"/>
@@ -5193,6 +5635,9 @@
     <mergeCell ref="F75:G77"/>
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="H77:J77"/>
+    <mergeCell ref="F87:F90"/>
+    <mergeCell ref="F78:G80"/>
+    <mergeCell ref="F84:G84"/>
     <mergeCell ref="C120:D120"/>
     <mergeCell ref="C125:D125"/>
     <mergeCell ref="C126:D126"/>
@@ -5216,12 +5661,7 @@
     <mergeCell ref="C122:D122"/>
     <mergeCell ref="C123:D123"/>
     <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A65:E74"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="G91:J91"/>
     <mergeCell ref="H92:I92"/>
     <mergeCell ref="G114:J114"/>
@@ -5241,6 +5681,58 @@
     <mergeCell ref="G92:G97"/>
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="H90:I90"/>
+    <mergeCell ref="C96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F1:F18"/>
+    <mergeCell ref="G10:G18"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G48:H49"/>
+    <mergeCell ref="G50:H51"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="F28:F32"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="G39:I43"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="G44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="F35:F45"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
